--- a/NewWebsiteSheet - V1.xlsx
+++ b/NewWebsiteSheet - V1.xlsx
@@ -6,21 +6,21 @@
     <sheet state="visible" name="Daily Casinos" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_E2A9CBD4_2B0B_4D8B_952A_03C08A8C23B7_.wvu.FilterData">'Daily Casinos'!$A$1:$P$107</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_1591541E_372F_4A14_A7E6_61F0244696D4_.wvu.FilterData">'Daily Casinos'!$A$1:$P$107</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_9C3B6DF3_B530_4DA4_A1A6_D60CE7BFB4CF_.wvu.FilterData">'Daily Casinos'!$A$1:$P$107</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_43ADF0D4_87FA_4668_8529_F4D208F7509F_.wvu.FilterData">'Daily Casinos'!$A$1:$P$107</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_71F547FD_0F4E_4EF9_9A25_919E00083B51_.wvu.FilterData">'Daily Casinos'!$A$1:$P$107</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_D687EDED_EDFD_45DE_A550_031CC1E78917_.wvu.FilterData">'Daily Casinos'!$A$1:$P$107</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E2A9CBD4-2B0B-4D8B-952A-03C08A8C23B7}" name="Group by  Welcome Package Offers"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{1591541E-372F-4A14-A7E6-61F0244696D4}" name="Filter 1"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{9C3B6DF3-B530-4DA4-A1A6-D60CE7BFB4CF}" name="Group by  Auto Roulette"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D687EDED-EDFD-45DE-A550-031CC1E78917}" name="Group by  Welcome Package Offers"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{43ADF0D4-87FA-4668-8529-F4D208F7509F}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{71F547FD-0F4E-4EF9-9A25-919E00083B51}" name="Group by  Auto Roulette"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="629">
   <si>
     <t xml:space="preserve"> Signups</t>
   </si>
@@ -461,7 +461,7 @@
     <t>Alabama, Connecticut, Delaware, Idaho, Georgia, Louisiana, Maryland, Michigan, Montana, Nevada, Pennsylvania, Rhode Island, Tennessee, Washington, West Virginia</t>
   </si>
   <si>
-    <t>Signup</t>
+    <t>https://www.ace.com/lp?r=256fce50%2F25500653</t>
   </si>
   <si>
     <t>Ace .com</t>
@@ -499,6 +499,9 @@
   </si>
   <si>
     <t>Alabama, Connecticut, Delaware, Georgia, Idaho, Kentucky, Louisiana, Maryland, Michigan, Montana, Nevada, New Jersey, New York, Pennsylvania, Rhode Island, Tennessee, Washington, West Virginia</t>
+  </si>
+  <si>
+    <t>https://game.acornfun.com/#/dashboard/welcome?channel=Refer&amp;campaign=Refer&amp;invite_code=EFRH1XB1</t>
   </si>
   <si>
     <t>AcornFun</t>
@@ -528,6 +531,9 @@
     <t>Alabama, Connecticut, Florida, Georgia, Idaho, Kentucky, Michigan, Minnesota, Nevada, South Carolina, Washington</t>
   </si>
   <si>
+    <t>https://www.goldrushcity.com/</t>
+  </si>
+  <si>
     <t>GoldRushCity</t>
   </si>
   <si>
@@ -576,6 +582,9 @@
     <t>Idaho, Kentucky, Massachusetts, Michigan, Nevada, New Jersey, and Washington</t>
   </si>
   <si>
+    <t>https://goodvibescasino.com/?r=T5-kzApSyLKE</t>
+  </si>
+  <si>
     <t>GoodVibesCasino</t>
   </si>
   <si>
@@ -609,6 +618,9 @@
   </si>
   <si>
     <t>Alabama, Connecticut, Delaware, Georgia, Hawaii, Idaho, Kentucky, Michigan, Montana, Nevada, South Carolina, Utah, Washington</t>
+  </si>
+  <si>
+    <t>https://www.lucky.me/raf/488755/</t>
   </si>
   <si>
     <t>Lucky .me</t>
@@ -685,6 +697,9 @@
     <t>Connecticut, Idaho, Michigan, Nevada, New York, Washington</t>
   </si>
   <si>
+    <t>https://sweepnext.com/?c=65707_bRrgq9N8</t>
+  </si>
+  <si>
     <t>SweepNext</t>
   </si>
   <si>
@@ -783,6 +798,9 @@
     <t>Connecticut, Idaho, Louisiana, Maryland, Michigan, Mississippi, Montana, Nevada, New Jersey, New York, Washington</t>
   </si>
   <si>
+    <t>https://game.sorceryreels.com/?raf=A0Z49X7A</t>
+  </si>
+  <si>
     <t>SorceryReels</t>
   </si>
   <si>
@@ -818,6 +836,9 @@
     <t>Idaho, Michigan, Nevada, Washington</t>
   </si>
   <si>
+    <t>https://www.vegascoins.com/</t>
+  </si>
+  <si>
     <t>VegasCoins</t>
   </si>
   <si>
@@ -853,6 +874,9 @@
   </si>
   <si>
     <t>Alabama, Connecticut, Delaware, Idaho, Kentucky, Louisiana, Michigan, Montana, Nevada, New York, Tennessee, and Washington</t>
+  </si>
+  <si>
+    <t>http://spinquest.com/?u=WXSBTAN</t>
   </si>
   <si>
     <t>SpinQuest</t>
@@ -893,6 +917,9 @@
     <t>Connecticut, Idaho, Michigan, Montana, Nevada, New York, Washington</t>
   </si>
   <si>
+    <t>https://luckybitsvegas.com/</t>
+  </si>
+  <si>
     <t>LuckyBitsVegas</t>
   </si>
   <si>
@@ -935,6 +962,9 @@
     <t>Arizona, Connecticut, Delaware, Idaho, Kentucky, Louisiana, Maryland, Michigan, Montana, Nevada, New Jersey, New York, Pennsylvania, Rhode Island, Washington, West Virginia</t>
   </si>
   <si>
+    <t>http://nioplay.net/?referralcode=89112214-2896-4529-907b-8fd7e7821635</t>
+  </si>
+  <si>
     <t>NioPlay</t>
   </si>
   <si>
@@ -977,6 +1007,9 @@
   </si>
   <si>
     <t>Idaho, Louisiana, Michigan, Montana, Nevada, Washington, New York, Connecticut, Maryland</t>
+  </si>
+  <si>
+    <t>https://playoncluck.com/tfc09c765</t>
   </si>
   <si>
     <t>Cluck</t>
@@ -1002,6 +1035,9 @@
     <t>The Roost LTD</t>
   </si>
   <si>
+    <t>https://luckystake.com/?c=64471_2GUt5Hff</t>
+  </si>
+  <si>
     <t>LuckyStake</t>
   </si>
   <si>
@@ -1057,6 +1093,9 @@
   </si>
   <si>
     <t>Connecticut, Hawaii, Idaho, Louisiana, Maryland, Michigan, Montana, Nevada, New York, Utah, Washington</t>
+  </si>
+  <si>
+    <t>https://rebet.page.link/2Rmytf3dtYSbor9m9</t>
   </si>
   <si>
     <t>ReBet</t>
@@ -1137,6 +1176,9 @@
     <t>Connecticut, Idaho, Louisiana, Maryland, Michigan, Montana, Nevada, New York</t>
   </si>
   <si>
+    <t>https://www.megafrenzy.com/</t>
+  </si>
+  <si>
     <t>MegaFrenzy</t>
   </si>
   <si>
@@ -1207,6 +1249,9 @@
   </si>
   <si>
     <t>Connecticut, Idaho, Louisiana, Maryland, Michigan, Montana, Nevada, New York, Washington</t>
+  </si>
+  <si>
+    <t>https://toratoracasino.com/?mode=signup&amp;referral=TORA-3ASVC-2XZ26P-K6</t>
   </si>
   <si>
     <t>ToraTora</t>
@@ -1227,6 +1272,9 @@
     <t>Connecticut, Delaware, Idaho, Kentucky, Louisiana, Maryland, Michigan, Mississippi, Montana, Nebraska, Nevada, New York, Washington, West Virginia</t>
   </si>
   <si>
+    <t>https://lunalandcasino.com/?inviter=9d8611a0-3ce7-5f54-a691-261bb2e300e2&amp;utm_source=referral&amp;utm_medium=inviteafriend</t>
+  </si>
+  <si>
     <t>LunaLandCasino</t>
   </si>
   <si>
@@ -1242,6 +1290,9 @@
   </si>
   <si>
     <t>Parana Plays LLC</t>
+  </si>
+  <si>
+    <t>https://app.icasino.com/sign-up</t>
   </si>
   <si>
     <t>iCasino</t>
@@ -1299,6 +1350,9 @@
     <t>Idaho, Louisiana, Michigan, Montana, Nevada, Washington</t>
   </si>
   <si>
+    <t>https://www.stackrcasino.com/?referralcode=bbde20f1-7e87-497b-862b-c49b3f11024c</t>
+  </si>
+  <si>
     <t>Stackr</t>
   </si>
   <si>
@@ -1352,6 +1406,9 @@
   <si>
     <t>Arizona, California, Colorado, Connecticut, Delaware, Florida, Hawaii, Illinois, Indiana, Kansas, Maine, Maryland, Minnesota, Montana, New Jersey
 North Carolina, Oregon, Rhode Island, South Dakota, Virginia, Wisconsin, Wyoming</t>
+  </si>
+  <si>
+    <t>https://moonspin.us/</t>
   </si>
   <si>
     <t>MoonSpin</t>
@@ -1534,6 +1591,9 @@
     <t>Connecticut, Idaho, Michigan, Montana, Nevada, Washington</t>
   </si>
   <si>
+    <t>https://affiliates.routy.app/route/91253?affId=3353&amp;ts=5005447</t>
+  </si>
+  <si>
     <t>Stake.us</t>
   </si>
   <si>
@@ -1598,6 +1658,9 @@
     <t>Connecticut, Delaware, Idaho, Kentucky, Michigan, Nevada, New Jersey, New York, Pennsylvania, Rhode Island, Vermont, Washington, West Virginia, Maryland</t>
   </si>
   <si>
+    <t>https://crowncoinscasino.com/?utm_campaign=364f186b-7369-428b-a22c-dbeaf57940c7&amp;utm_source=friends</t>
+  </si>
+  <si>
     <t>Crown Coins</t>
   </si>
   <si>
@@ -1633,6 +1696,9 @@
   </si>
   <si>
     <t>Idaho, Louisiana, Michigan, Montana, Nevada, and Washington</t>
+  </si>
+  <si>
+    <t>https://affiliates.routy.app/route/91231?affId=3353&amp;ts=5005447</t>
   </si>
   <si>
     <t>Real Prize</t>
@@ -1658,6 +1724,9 @@
   </si>
   <si>
     <t>Arkansas,Georgia,Hawaii,Idaho,Kentucky,Michigan,Mississippi,Nebraska,Nevada,New York,North Dakota,Tennessee,Vermont,Washington</t>
+  </si>
+  <si>
+    <t>https://lonestarcasino.com/refer/516503</t>
   </si>
   <si>
     <t>Lonestar</t>
@@ -1702,6 +1771,9 @@
   </si>
   <si>
     <t>Idaho, Michigan, Montana, Nevada, Washington</t>
+  </si>
+  <si>
+    <t>https://affiliates.routy.app/route/91183?affId=3353&amp;ts=5005447</t>
   </si>
   <si>
     <t>Luckybird.io</t>
@@ -1761,6 +1833,9 @@
     <t>Michigan, Nevada, Kentucky, Idaho, Washington, Connecticut</t>
   </si>
   <si>
+    <t>https://luckylandslots.com/</t>
+  </si>
+  <si>
     <t>Luckyland</t>
   </si>
   <si>
@@ -1895,6 +1970,9 @@
     <t>Connecticut, Idaho, Washington, Nevada, Michigan, Delaware, Montana, Mississippi</t>
   </si>
   <si>
+    <t>https://goldtreasurecasino.com/?referrer=AymNdsGB</t>
+  </si>
+  <si>
     <t>GoldTreasureCasino</t>
   </si>
   <si>
@@ -1916,6 +1994,9 @@
     <t>Georgia, Hawaii, Idaho, Michigan, Mississippi, Nebraska, Nevada, New York, North Dakota, Ohio, Tennessee, Vermont, Washington, Wyoming</t>
   </si>
   <si>
+    <t>https://affiliates.routy.app/route/91184?affId=3353&amp;ts=5005447</t>
+  </si>
+  <si>
     <t>McLuck</t>
   </si>
   <si>
@@ -1967,6 +2048,9 @@
   </si>
   <si>
     <t>Alabama, Delaware, Georgia, Idaho, Kentucky, Louisiana, Maryland, Michigan, Montana, Nevada, New Jersey, New York, Ohio, Washington, West Virginia</t>
+  </si>
+  <si>
+    <t>https://affiliates.routy.app/route/91204?affId=3353&amp;ts=5005447</t>
   </si>
   <si>
     <t>MyPrize</t>
@@ -2041,6 +2125,9 @@
     <t>Hawaii, Idaho, Louisiana, Michigan, Montana, Nevada, New York, Washington</t>
   </si>
   <si>
+    <t>https://luckyslots.us/?raf=aG5NSE5FalVwN1U2Z0xzbW9VcDc=</t>
+  </si>
+  <si>
     <t>Lucky Slots .us</t>
   </si>
   <si>
@@ -2084,6 +2171,9 @@
     <t>Connecticut, Idaho, Michigan, Louisana, Montana, Nevada, Washington, New York, and West Virginia</t>
   </si>
   <si>
+    <t>https://login.chumbacasino.com/register</t>
+  </si>
+  <si>
     <t>Chumba Casino</t>
   </si>
   <si>
@@ -2117,6 +2207,9 @@
   </si>
   <si>
     <t>Connecticut, Idaho, Michigan, Montana, Delaware, Nevada, Washington, Mississippi</t>
+  </si>
+  <si>
+    <t>https://moozi.com/signup?referral_code=1483842358</t>
   </si>
   <si>
     <t>Moozi</t>
@@ -2140,6 +2233,9 @@
     <t>Washington, Nevada, Idaho, and Michigan</t>
   </si>
   <si>
+    <t>https://www.pulszbingo.com/home?invited_by=u358hj</t>
+  </si>
+  <si>
     <t>PulszBingo</t>
   </si>
   <si>
@@ -2177,6 +2273,9 @@
   </si>
   <si>
     <t xml:space="preserve">Alabama, Connecticut, Idaho, Louisiana, Michigan, Mississippi, Montana, Nevada, New York, Tennessee, Washington, Arizona, West Virginia, Mississippi </t>
+  </si>
+  <si>
+    <t>https://affiliates.routy.app/route/91228?affId=3353&amp;ts=5005447</t>
   </si>
   <si>
     <t>Pulsz</t>
@@ -2208,6 +2307,9 @@
     <t xml:space="preserve">Idaho,Michigan,Montana,Nevada,Washington, Arizona, Mississippi </t>
   </si>
   <si>
+    <t>https://track.sportzino.fun/click?o=2&amp;a=101612&amp;c=18</t>
+  </si>
+  <si>
     <t>Sportzino</t>
   </si>
   <si>
@@ -2243,6 +2345,9 @@
   </si>
   <si>
     <t>Georgia, Idaho, Michigan, Nevada, New York, Washington</t>
+  </si>
+  <si>
+    <t>https://track.zulacasino.fun/click?o=3&amp;a=101612&amp;c=17</t>
   </si>
   <si>
     <t>Zula</t>
@@ -2278,6 +2383,9 @@
     <t>Idaho, Michigan, Nevada, Washington, New York</t>
   </si>
   <si>
+    <t>https://www.yaycasino.com/signup/156c000c-5b70-458e-8213-efbfe222cb10</t>
+  </si>
+  <si>
     <t>YayCasino .com</t>
   </si>
   <si>
@@ -2306,6 +2414,9 @@
   </si>
   <si>
     <t>Idaho, Michigan, New York, Nevada, Kentucky, Vermont, and Washington</t>
+  </si>
+  <si>
+    <t>https://play.spinsagacasino.com/?ref=29904&amp;campaign=referFriend</t>
   </si>
   <si>
     <t>SpinSaga</t>
@@ -2346,6 +2457,9 @@
     <t>Idaho, Michigan, Montana, Nebraska, Nevada, North Dakota, and Washington</t>
   </si>
   <si>
+    <t>https://www.rolla.com/?raf=114612</t>
+  </si>
+  <si>
     <t>Rolla</t>
   </si>
   <si>
@@ -2386,6 +2500,9 @@
   </si>
   <si>
     <t>Mummy's Gold Minimum Bet</t>
+  </si>
+  <si>
+    <t>https://affiliates.routy.app/route/91131?affId=3353&amp;ts=5005447</t>
   </si>
   <si>
     <t>Casino.Click</t>
@@ -2438,6 +2555,9 @@
     <t>Idaho, Michigan, Nevada, Kentucky, Washington</t>
   </si>
   <si>
+    <t>https://modo.us/?referralCode=AWJF69</t>
+  </si>
+  <si>
     <t>Modo</t>
   </si>
   <si>
@@ -2472,6 +2592,9 @@
   </si>
   <si>
     <t>Washington, Montana, Maryland, Pennsylvania, New Jersey, Connecticut, West Virginia, Louisiana, Rhode Island, Delaware, Nevada, Michigan, Idaho, New York, Arizona</t>
+  </si>
+  <si>
+    <t>https://www.spinpals.com/?referralcode=50405075-7105-4b67-b399-a16f9599a795</t>
   </si>
   <si>
     <t>SpinPals</t>
@@ -2510,6 +2633,9 @@
   </si>
   <si>
     <t>Alabama, Connecticut, Idaho, Louisiana, Michigan, Montana, Nevada, Washington</t>
+  </si>
+  <si>
+    <t>https://login.auth.poker/login?state=hKFo2SBwOWZnUE5lZVVuMUUtcmx0Tl9Cd1Rfbk9FVWE1OFhNM6FupWxvZ2luo3RpZNkgNVlERFZkYUZLYTlPZHF6b004N1YtNjNJbDlobW1BVUOjY2lk2SBJcjE0dkFKNFhFM0Q5WHNpS1poYjYxZ3kxdTV2eVk0Vw&amp;client=Ir14vAJ4XE3D9XsiKZhb61gy1u5vyY4W&amp;protocol=oauth2&amp;scope=openid%20profile%20email&amp;audience=pok-services&amp;redirect_uri=https%3A%2F%2Fplay.globalpoker.com&amp;platform=globalpoker.com&amp;viewer_country=US&amp;viewer_country_region=AZ&amp;OptanonConsent=isIABGlobal%3Dfalse%26datestamp%3DWed%2BSep%2B04%2B2024%2B20%253A12%253A32%2BGMT-0700%2B(Mountain%2BStandard%2BTime)%26version%3D6.6.0%26hosts%3D%26consentId%3Dab4856ff-a439-4fdf-b258-6fb879150185%26interactionCount%3D1%26landingPath%3DNotLandingPage%26groups%3DC0001%253A1%252CC0002%253A1%252CC0004%253A1%252CC0003%253A1%26AwaitingReconsent%3Dfalse%26geolocation%3DUS%253BAZ&amp;blocked_markets_at_registration=mi%2Cus-mi%2Cmichigan%2Cmichiga%2Cmt%2Cus-mt%2Cmontana%2Cct%2Cus-ct%2Cconnecticut%2Cnv%2Cus-nv%2Cnevada&amp;blocked_markets_at_login=mi%2Cus-mi%2Cmichigan%2Cmichiga%2Cmt%2Cus-mt%2Cmontana%2Cct%2Cus-ct%2Cconnecticut&amp;response_type=code&amp;response_mode=query&amp;nonce=Vy1NX05jUWVEcVAzMUsyT2QtUEFRaHF2SHBRRWFCc1gxbTZnVTREUHQuQg%3D%3D&amp;code_challenge=bXqEFpUuhyiiB61aP8nkadnAVwHDKQzlIuX4gCEzdqs&amp;code_challenge_method=S256&amp;auth0Client=eyJuYW1lIjoiYXV0aDAtc3BhLWpzIiwidmVyc2lvbiI6IjEuMjIuNiJ9</t>
   </si>
   <si>
     <t>Global Poker</t>
@@ -2625,6 +2751,9 @@
       <t xml:space="preserve">
 </t>
     </r>
+  </si>
+  <si>
+    <t>https://affiliates.routy.app/route/91174?affId=3353&amp;ts=5005447</t>
   </si>
   <si>
     <t>Legendz</t>
@@ -2664,27 +2793,6 @@
     <t>Connecticut, Kentucky, Idaho, Michigan, Montana, Nebraska, North Dakota, Ohio, Washington, New York, West Virginia, Tennessee, Nevada</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <color rgb="FF434343"/>
-        <sz val="16.0"/>
-      </rPr>
-      <t xml:space="preserve">Signup
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16.0"/>
-      </rPr>
-      <t>Use code
-CQOUO
-(Appreciate
- it!)</t>
-    </r>
-  </si>
-  <si>
     <t>RubySweeps</t>
   </si>
   <si>
@@ -2716,6 +2824,9 @@
     <t>Connecticut, Delaware, Idaho, Michigan, Nebraska, Kentucky, Ohio, Rhode Island, Utah, and Washington</t>
   </si>
   <si>
+    <t>https://www.goldenheartsgames.com/</t>
+  </si>
+  <si>
     <t>Golden Hearts Games</t>
   </si>
   <si>
@@ -2726,6 +2837,9 @@
   </si>
   <si>
     <t>Washington, Idaho, Nevada &amp; Michigan</t>
+  </si>
+  <si>
+    <t>https://apps.apple.com/us/app/fliff-social-sports-picks/id1489145500?mt=8</t>
   </si>
   <si>
     <t>Fliff</t>
@@ -2761,6 +2875,9 @@
   <si>
     <t xml:space="preserve">Hawaii, Idaho, Nevada, Tennessee, and Washington
 </t>
+  </si>
+  <si>
+    <t>https://sidepot.us/home</t>
   </si>
   <si>
     <t>Sidepot</t>
@@ -2772,6 +2889,9 @@
   </si>
   <si>
     <t>Alabama, Connecticut, Idaho, Kentucky, Louisiana, Michigan, Montana, Nevada, Tennessee, Washington</t>
+  </si>
+  <si>
+    <t>https://speedsweeps.com/?ref=r_poponline63</t>
   </si>
   <si>
     <t>SpeedSweeps</t>
@@ -2899,6 +3019,9 @@
     </r>
   </si>
   <si>
+    <t>https://www.jefebet.com/</t>
+  </si>
+  <si>
     <t>Jefebet</t>
   </si>
   <si>
@@ -2917,6 +3040,9 @@
     <t>Connecticut, Delaware, Hawaii, Idaho, Kentucky, Louisiana, Maryland, Michigan, Montana, Nevada, New Jersey, Washington</t>
   </si>
   <si>
+    <t>https://affiliates.routy.app/route/91243?affId=3353&amp;ts=5005447</t>
+  </si>
+  <si>
     <t>Rolling Riches</t>
   </si>
   <si>
@@ -2926,6 +3052,9 @@
     <t>Hawaii, Idaho, Kentucky, Michigan, Nevada, New York, Washington, Delaware, Connecticut, Maryland, Montana, West Virginia</t>
   </si>
   <si>
+    <t>https://track.fortunecoins.fun/click?o=1&amp;a=101612&amp;c=16</t>
+  </si>
+  <si>
     <t>Fortune Coins</t>
   </si>
   <si>
@@ -2933,6 +3062,9 @@
   </si>
   <si>
     <t>Idaho, Michigan, Nevada, New York, Washington</t>
+  </si>
+  <si>
+    <t>https://affiliates.routy.app/route/91132?affId=3353&amp;ts=5005447</t>
   </si>
   <si>
     <t>Clubs Poker</t>
@@ -2946,6 +3078,9 @@
   </si>
   <si>
     <t>Idaho, Nevada, Michigan, Montana, Louisiana, Mississippi, West Virginia, Washington</t>
+  </si>
+  <si>
+    <t>https://affiliates.routy.app/route/83977?affId=3353&amp;ts=5004204</t>
   </si>
   <si>
     <t>High5Casino</t>
@@ -2969,6 +3104,9 @@
 Washington, West Virginia, Arizona</t>
   </si>
   <si>
+    <t>https://affiliates.routy.app/route/95239?affId=3353&amp;ts=5005447</t>
+  </si>
+  <si>
     <t>Spree</t>
   </si>
   <si>
@@ -2984,6 +3122,9 @@
   </si>
   <si>
     <t>Alabama, Delaware, Georgia, Idaho, Kentucky, Louisiana, Maryland, Michigan, Montana, Nevada, New Jersey, Washington, West Virginia, New York, Connecticut</t>
+  </si>
+  <si>
+    <t>https://affiliates.routy.app/route/91164?affId=3353&amp;ts=5005447</t>
   </si>
   <si>
     <t>Hello Millions</t>
@@ -3018,6 +3159,9 @@
 4th: $75 for 100SC (133%)</t>
   </si>
   <si>
+    <t>https://nolimitcoins.com/?invited_by=0MB973</t>
+  </si>
+  <si>
     <t>NoLimitCoins</t>
   </si>
   <si>
@@ -3041,6 +3185,9 @@
   </si>
   <si>
     <t>Connecticut, Delaware, Idaho, Michigan, Montana, Nevada, New York, Washington, West Virginia, and Wyoming</t>
+  </si>
+  <si>
+    <t>https://chipnwin.com/?earn=6bPxVnUp</t>
   </si>
   <si>
     <t>ChipNWin</t>
@@ -3069,6 +3216,9 @@
     <t>Idaho, Michigan, Nevada, and Washington</t>
   </si>
   <si>
+    <t>https://affiliates.routy.app/route/91148?affId=3353&amp;ts=5005447</t>
+  </si>
+  <si>
     <t>FortuneWheelz</t>
   </si>
   <si>
@@ -3083,6 +3233,9 @@
     <t>Mummy's Gold, Minimum Bet, Plinko, Low Risk, 16 Rows,</t>
   </si>
   <si>
+    <t>http://funzcity.com/?invited_by=Z1Y2ZX</t>
+  </si>
+  <si>
     <t>FunzCity</t>
   </si>
   <si>
@@ -3090,6 +3243,9 @@
   </si>
   <si>
     <t>Washington, Idaho, Wyoming, Michigan, Nevada, Connecticut, Delaware, Montana, West Virginia, New York</t>
+  </si>
+  <si>
+    <t>https://funrize.com/?invited_by=GTT1LK</t>
   </si>
   <si>
     <t>FunRize</t>
@@ -3104,6 +3260,9 @@
 2nd: $50 for 100SC (200%)</t>
   </si>
   <si>
+    <t>https://taofortune.com/?invited_by=N9YAYZ</t>
+  </si>
+  <si>
     <t>TaoFortune</t>
   </si>
   <si>
@@ -3115,6 +3274,9 @@
     <t>$80 for 110SC (137.5%)</t>
   </si>
   <si>
+    <t>https://www.chanced.com/c/q9xsr3</t>
+  </si>
+  <si>
     <t>Chanced.com</t>
   </si>
   <si>
@@ -3129,6 +3291,9 @@
     <t>Idaho, Michigan, Nevada, Kentucky, Washington, Montana, West Virginia, Delaware, Connecticut</t>
   </si>
   <si>
+    <t>https://luckyhands.com/sign-up?code=0f6adf5b-61c1-47c4-b19d-ed570fcb6263</t>
+  </si>
+  <si>
     <t>Luckyhands</t>
   </si>
   <si>
@@ -3142,6 +3307,9 @@
   </si>
   <si>
     <t>Idaho, Louisiana, Michigan, Nevada, New York, Montana</t>
+  </si>
+  <si>
+    <t>https://www.sweepstakescasino.com/go/geo/Jackpota/socialcasino?utm_campaign=forum</t>
   </si>
   <si>
     <t>Jackpota</t>
@@ -3161,6 +3329,9 @@
 New York, Pennsylvania, Washington, West Virginia</t>
   </si>
   <si>
+    <t>https://www.spinblitz.com/?r=1088555867</t>
+  </si>
+  <si>
     <t>SpinBlitz</t>
   </si>
   <si>
@@ -3173,6 +3344,9 @@
     <t>Joker's Jewel Jackpot Play, Minimum Bet</t>
   </si>
   <si>
+    <t>https://affiliates.routy.app/route/91215?affId=3353&amp;ts=5005447</t>
+  </si>
+  <si>
     <t>Playfame</t>
   </si>
   <si>
@@ -3180,6 +3354,9 @@
 1st: $10 for 30SC (300%)
 2nd: $20 for 40SC (200%)
 3rd: $75 for 100SC (133%)</t>
+  </si>
+  <si>
+    <t>https://affiliates.routy.app/route/91194?affId=3353&amp;ts=5005447</t>
   </si>
   <si>
     <t>MegaBonanza</t>
@@ -3196,6 +3373,9 @@
 Washington, West Virginia</t>
   </si>
   <si>
+    <t>https://play.babacasino.com/#/?lpPanel=sign-up</t>
+  </si>
+  <si>
     <t>Baba Casino</t>
   </si>
   <si>
@@ -3227,6 +3407,9 @@
 Ohio, Tennessee, Vermont, Washington</t>
   </si>
   <si>
+    <t>https://daracasino.com/signup?refferalCode=lrl7Kl4GhU</t>
+  </si>
+  <si>
     <t>Dara Casino</t>
   </si>
   <si>
@@ -3252,6 +3435,9 @@
   </si>
   <si>
     <t>Connecticut, Hawaii, Idaho, Kentucky, Michigan, Mississippi, Montana, Nevada, New York, North Dakota, Ohio, Tennessee, Vermont and Washington</t>
+  </si>
+  <si>
+    <t>https://affiliates.routy.app/route/91263?affId=3353&amp;ts=5005447</t>
   </si>
   <si>
     <t>The Money Factory</t>
@@ -3269,6 +3455,9 @@
     <t>Idaho, Louisiana, Michigan, Montana, Nevada, and Washington.</t>
   </si>
   <si>
+    <t>https://jackpotrabbit.com/?invited_by=8ZGOFC</t>
+  </si>
+  <si>
     <t>JackpotRabbit</t>
   </si>
   <si>
@@ -3309,6 +3498,9 @@
     <t>UTech Solutions LLC</t>
   </si>
   <si>
+    <t>https://wildworldcasino.com/ref/riley630326</t>
+  </si>
+  <si>
     <t>Wild World Casino</t>
   </si>
   <si>
@@ -3316,6 +3508,9 @@
   </si>
   <si>
     <t>Washington, Nevada, Connecticut, Hawaii, Louisiana, Idaho</t>
+  </si>
+  <si>
+    <t>https://sixty6.com/?ref=CB7B82E700D0A9CB&amp;modal=register</t>
   </si>
   <si>
     <t>Sixty6</t>
@@ -3338,6 +3533,9 @@
     <t xml:space="preserve">Connecticut, Delaware, Idaho, Kentucky, Maryland, Michigan, Montana, Nevada, New York, Washington, West Virginia, Mississippi </t>
   </si>
   <si>
+    <t>https://smilescasino.com/</t>
+  </si>
+  <si>
     <t>Smiles Casino</t>
   </si>
   <si>
@@ -3369,6 +3567,9 @@
   </si>
   <si>
     <t>Nevada, Kentucky, Michigan, Idaho, Connecticut, Delaware, Washington and Maryland</t>
+  </si>
+  <si>
+    <t>https://getzoot.us/?referralCode=ZOOTwithUSER75787</t>
   </si>
   <si>
     <t>GetZoot</t>
@@ -3419,6 +3620,9 @@
   </si>
   <si>
     <t>Idaho, Louisiana, Michigan, Nebraska, Nevada, North Dakota, Washington, Quebec in Canada</t>
+  </si>
+  <si>
+    <t>https://play.goldslips.com/</t>
   </si>
   <si>
     <t>GoldSlips</t>
@@ -3831,7 +4035,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="49">
+  <fonts count="44">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -3942,13 +4146,6 @@
       <name val="Roboto"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="16.0"/>
-      <color rgb="FF0000FF"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
       <u/>
       <sz val="16.0"/>
       <color rgb="FF0000FF"/>
@@ -3958,7 +4155,7 @@
       <b/>
       <u/>
       <sz val="16.0"/>
-      <color rgb="FF434343"/>
+      <color rgb="FF0000FF"/>
       <name val="Roboto"/>
     </font>
     <font>
@@ -3984,27 +4181,13 @@
       <b/>
       <u/>
       <sz val="16.0"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF434343"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
       <sz val="16.0"/>
       <color rgb="FF0000FF"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="16.0"/>
-      <color rgb="FF0000FF"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="16.0"/>
-      <color rgb="FF434343"/>
       <name val="Roboto"/>
     </font>
     <font>
@@ -4038,20 +4221,14 @@
       <b/>
       <u/>
       <sz val="16.0"/>
-      <color rgb="FF0000FF"/>
-      <name val="Roboto"/>
+      <color rgb="FF434343"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="16.0"/>
       <color rgb="FF0000FF"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="16.0"/>
-      <color rgb="FF434343"/>
       <name val="Roboto"/>
     </font>
     <font>
@@ -4079,6 +4256,26 @@
       <b/>
       <u/>
       <sz val="16.0"/>
+      <color rgb="FF434343"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16.0"/>
+      <color rgb="FF434343"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16.0"/>
+      <color rgb="FF434343"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16.0"/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
     </font>
@@ -4093,44 +4290,17 @@
       <b/>
       <u/>
       <sz val="16.0"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF434343"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="16.0"/>
-      <color rgb="FF0000FF"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="16.0"/>
-      <color rgb="FF0000FF"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="16.0"/>
-      <color rgb="FF0000FF"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="16.0"/>
-      <color rgb="FF0000FF"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <b/>
       <u/>
       <sz val="16.0"/>
       <color rgb="FF434343"/>
       <name val="Roboto"/>
     </font>
     <font>
+      <b/>
       <u/>
       <sz val="16.0"/>
       <color rgb="FF434343"/>
@@ -5088,7 +5258,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="238">
+  <cellXfs count="236">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5231,7 +5401,7 @@
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="18" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="22" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -5293,9 +5463,6 @@
     <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="18" fillId="3" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="20" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -5311,7 +5478,7 @@
     <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -5329,8 +5496,8 @@
     <xf borderId="18" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="25" fillId="3" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="25" fillId="3" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="26" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -5353,7 +5520,7 @@
     <xf borderId="25" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="25" fillId="5" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="25" fillId="5" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="25" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -5407,7 +5574,7 @@
     <xf borderId="37" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="17" fillId="9" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="9" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="38" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -5425,7 +5592,7 @@
     <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -5437,7 +5604,7 @@
     <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="18" fillId="9" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="9" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="20" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -5446,14 +5613,14 @@
     <xf borderId="40" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="22" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="22" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="18" fillId="9" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="18" fillId="9" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="40" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -5461,9 +5628,6 @@
     <xf borderId="22" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="9" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="40" fillId="4" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -5476,7 +5640,7 @@
     <xf borderId="41" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="20" fillId="9" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="9" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -5485,16 +5649,13 @@
     <xf borderId="41" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="18" fillId="9" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="20" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="42" fillId="10" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="40" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -5503,11 +5664,11 @@
     <xf borderId="22" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="25" fillId="9" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="25" fillId="9" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="29" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -5524,7 +5685,7 @@
     <xf borderId="25" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="25" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="25" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="25" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -5542,7 +5703,7 @@
     <xf borderId="32" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="17" fillId="11" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="11" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="44" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -5554,7 +5715,7 @@
     <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="11" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="20" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -5566,8 +5727,8 @@
     <xf borderId="46" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="11" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="18" fillId="11" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="20" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -5575,6 +5736,9 @@
     <xf borderId="21" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="18" fillId="11" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="47" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -5584,7 +5748,7 @@
     <xf borderId="23" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="25" fillId="11" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="25" fillId="11" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="48" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -5605,8 +5769,8 @@
     <xf borderId="32" fillId="12" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="17" fillId="12" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="17" fillId="12" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="19" fillId="12" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -5620,7 +5784,7 @@
     <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="18" fillId="12" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="12" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="20" fillId="12" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -5629,18 +5793,12 @@
     <xf borderId="51" fillId="12" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="18" fillId="12" fontId="40" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="18" fillId="12" fontId="41" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="51" fillId="12" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -5662,16 +5820,13 @@
     <xf borderId="54" fillId="8" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="18" fillId="12" fontId="42" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="20" fillId="12" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="55" fillId="8" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="43" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="55" fillId="8" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -5686,8 +5841,8 @@
     <xf borderId="53" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="25" fillId="12" fontId="44" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="25" fillId="12" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="29" fillId="12" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -5704,8 +5859,8 @@
     <xf borderId="32" fillId="13" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="17" fillId="3" fontId="45" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="17" fillId="3" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="19" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -5722,7 +5877,7 @@
     <xf borderId="17" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="17" fillId="7" fontId="46" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="7" fontId="40" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="17" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -5734,6 +5889,15 @@
     <xf borderId="19" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="18" fillId="3" fontId="41" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="18" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="18" fillId="12" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="21" fillId="8" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -5752,7 +5916,7 @@
     <xf borderId="58" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="25" fillId="0" fontId="47" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="25" fillId="0" fontId="42" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="18" fillId="13" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -5791,16 +5955,16 @@
     <xf borderId="60" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="48" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="43" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="48" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="43" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="61" fillId="0" fontId="48" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="61" fillId="0" fontId="43" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="61" fillId="0" fontId="48" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="61" fillId="0" fontId="43" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -6398,19 +6562,19 @@
     </row>
     <row r="7" ht="90.0" customHeight="1">
       <c r="A7" s="47" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F7" s="41">
         <v>100.0</v>
@@ -6435,31 +6599,31 @@
         <v>33</v>
       </c>
       <c r="N7" s="44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O7" s="45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P7" s="46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" ht="83.25" customHeight="1">
-      <c r="A8" s="47" t="s">
-        <v>52</v>
+      <c r="A8" s="29" t="s">
+        <v>67</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F8" s="49">
         <v>100.0</v>
@@ -6484,28 +6648,28 @@
         <v>33</v>
       </c>
       <c r="N8" s="36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O8" s="37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P8" s="38" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" ht="83.25" customHeight="1">
       <c r="A9" s="29" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E9" s="52" t="s">
         <v>56</v>
@@ -6526,7 +6690,7 @@
         <v>30</v>
       </c>
       <c r="K9" s="56" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L9" s="43" t="s">
         <v>32</v>
@@ -6535,31 +6699,31 @@
         <v>33</v>
       </c>
       <c r="N9" s="44" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O9" s="45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P9" s="46" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" ht="111.0" customHeight="1">
-      <c r="A10" s="47" t="s">
-        <v>52</v>
+      <c r="A10" s="29" t="s">
+        <v>81</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D10" s="57" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E10" s="58" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F10" s="59">
         <v>100.0</v>
@@ -6580,37 +6744,37 @@
         <v>41</v>
       </c>
       <c r="L10" s="35" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M10" s="35" t="s">
         <v>33</v>
       </c>
       <c r="N10" s="36" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="O10" s="37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P10" s="38" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" ht="90.75" customHeight="1">
       <c r="A11" s="47" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F11" s="41">
         <v>100.0</v>
@@ -6629,34 +6793,34 @@
       </c>
       <c r="K11" s="42"/>
       <c r="L11" s="43" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M11" s="43" t="s">
         <v>33</v>
       </c>
       <c r="N11" s="44" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O11" s="45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P11" s="46" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" ht="95.25" customHeight="1">
-      <c r="A12" s="47" t="s">
-        <v>52</v>
+      <c r="A12" s="29" t="s">
+        <v>97</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D12" s="60" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E12" s="61"/>
       <c r="F12" s="59">
@@ -6682,31 +6846,31 @@
         <v>33</v>
       </c>
       <c r="N12" s="36" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O12" s="37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P12" s="38" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" ht="83.25" customHeight="1">
       <c r="A13" s="47" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E13" s="52" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F13" s="41">
         <v>100.0</v>
@@ -6724,7 +6888,7 @@
         <v>30</v>
       </c>
       <c r="K13" s="56" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L13" s="43" t="s">
         <v>32</v>
@@ -6733,31 +6897,31 @@
         <v>33</v>
       </c>
       <c r="N13" s="44" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="O13" s="45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="P13" s="46" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" ht="83.25" customHeight="1">
       <c r="A14" s="47" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F14" s="59">
         <v>50.0</v>
@@ -6775,7 +6939,7 @@
         <v>30</v>
       </c>
       <c r="K14" s="62" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="L14" s="35" t="s">
         <v>32</v>
@@ -6784,7 +6948,7 @@
         <v>33</v>
       </c>
       <c r="N14" s="36" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O14" s="37" t="str">
         <f>IMAGE("https://i.imgur.com/PNbQx4N.png", 4, 62, 62)
@@ -6792,21 +6956,21 @@
         <v/>
       </c>
       <c r="P14" s="38" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" ht="83.25" customHeight="1">
       <c r="A15" s="47" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E15" s="63"/>
       <c r="F15" s="41">
@@ -6832,7 +6996,7 @@
         <v>33</v>
       </c>
       <c r="N15" s="44" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="O15" s="45" t="str">
         <f t="shared" ref="O15:O22" si="2">IMAGE("https://i.imgur.com/gys4itG.png", 4, 62, 62)
@@ -6840,24 +7004,24 @@
         <v/>
       </c>
       <c r="P15" s="46" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" ht="83.25" customHeight="1">
       <c r="A16" s="47" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D16" s="60" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="F16" s="59">
         <v>75.0</v>
@@ -6882,31 +7046,31 @@
         <v>33</v>
       </c>
       <c r="N16" s="36" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="O16" s="37" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="P16" s="38" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" ht="83.25" customHeight="1">
-      <c r="A17" s="47" t="s">
-        <v>52</v>
+      <c r="A17" s="29" t="s">
+        <v>132</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C17" s="64" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F17" s="40">
         <v>100.0</v>
@@ -6931,31 +7095,31 @@
         <v>33</v>
       </c>
       <c r="N17" s="44" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="O17" s="45" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="P17" s="46" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" ht="83.25" customHeight="1">
       <c r="A18" s="47" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="B18" s="65" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="F18" s="41">
         <v>100.0</v>
@@ -6973,7 +7137,7 @@
         <v>29</v>
       </c>
       <c r="K18" s="66" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="L18" s="43" t="s">
         <v>32</v>
@@ -6982,31 +7146,31 @@
         <v>33</v>
       </c>
       <c r="N18" s="44" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="O18" s="67" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="P18" s="46" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" ht="107.25" customHeight="1">
-      <c r="A19" s="29" t="s">
-        <v>52</v>
+      <c r="A19" s="47" t="s">
+        <v>146</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="E19" s="58" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="F19" s="59">
         <v>20.0</v>
@@ -7025,37 +7189,37 @@
       </c>
       <c r="K19" s="54"/>
       <c r="L19" s="35" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="M19" s="35" t="s">
         <v>33</v>
       </c>
       <c r="N19" s="36" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="O19" s="67" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="P19" s="38" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" ht="83.25" customHeight="1">
-      <c r="A20" s="47" t="s">
-        <v>52</v>
+      <c r="A20" s="29" t="s">
+        <v>154</v>
       </c>
       <c r="B20" s="65" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="D20" s="60" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E20" s="59" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F20" s="59">
         <v>100.0</v>
@@ -7074,37 +7238,37 @@
       </c>
       <c r="K20" s="54"/>
       <c r="L20" s="35" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="M20" s="35" t="s">
         <v>33</v>
       </c>
       <c r="N20" s="36" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="O20" s="67" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="P20" s="38" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" ht="83.25" customHeight="1">
-      <c r="A21" s="47" t="s">
-        <v>52</v>
+      <c r="A21" s="29" t="s">
+        <v>162</v>
       </c>
       <c r="B21" s="65" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F21" s="41">
         <v>50.0</v>
@@ -7129,31 +7293,31 @@
         <v>33</v>
       </c>
       <c r="N21" s="44" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="O21" s="67" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="P21" s="46" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" ht="83.25" customHeight="1">
-      <c r="A22" s="47" t="s">
-        <v>52</v>
+      <c r="A22" s="29" t="s">
+        <v>168</v>
       </c>
       <c r="B22" s="65" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="E22" s="59" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="F22" s="59">
         <v>100.0</v>
@@ -7178,33 +7342,33 @@
         <v>33</v>
       </c>
       <c r="N22" s="36" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="O22" s="67" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="P22" s="38" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" ht="82.5" customHeight="1">
-      <c r="A23" s="68" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="69" t="s">
-        <v>158</v>
-      </c>
-      <c r="C23" s="70" t="s">
-        <v>159</v>
-      </c>
-      <c r="D23" s="71" t="s">
-        <v>160</v>
-      </c>
-      <c r="E23" s="72" t="s">
-        <v>161</v>
-      </c>
-      <c r="F23" s="72">
+      <c r="A23" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" s="69" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="70" t="s">
+        <v>177</v>
+      </c>
+      <c r="E23" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" s="71">
         <v>50.0</v>
       </c>
       <c r="G23" s="23" t="s">
@@ -7219,44 +7383,44 @@
       <c r="J23" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K23" s="73" t="s">
-        <v>162</v>
-      </c>
-      <c r="L23" s="74" t="s">
+      <c r="K23" s="72" t="s">
+        <v>179</v>
+      </c>
+      <c r="L23" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="74" t="s">
+      <c r="M23" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N23" s="75" t="s">
-        <v>163</v>
+      <c r="N23" s="74" t="s">
+        <v>180</v>
       </c>
       <c r="O23" s="67" t="str">
         <f t="shared" ref="O23:O24" si="3">IMAGE("https://i.imgur.com/PNbQx4N.png", 4, 62, 62)
 </f>
         <v/>
       </c>
-      <c r="P23" s="76" t="s">
-        <v>164</v>
+      <c r="P23" s="75" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="24" ht="77.25" customHeight="1">
       <c r="A24" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="77" t="s">
-        <v>165</v>
-      </c>
-      <c r="C24" s="78" t="s">
-        <v>166</v>
-      </c>
-      <c r="D24" s="71" t="s">
-        <v>167</v>
-      </c>
-      <c r="E24" s="72" t="s">
-        <v>168</v>
-      </c>
-      <c r="F24" s="79">
+        <v>182</v>
+      </c>
+      <c r="B24" s="76" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="77" t="s">
+        <v>184</v>
+      </c>
+      <c r="D24" s="70" t="s">
+        <v>185</v>
+      </c>
+      <c r="E24" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="F24" s="78">
         <v>100.0</v>
       </c>
       <c r="G24" s="23" t="s">
@@ -7271,141 +7435,141 @@
       <c r="J24" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K24" s="73" t="s">
-        <v>169</v>
-      </c>
-      <c r="L24" s="74" t="s">
+      <c r="K24" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="L24" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="74" t="s">
+      <c r="M24" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N24" s="75" t="s">
-        <v>170</v>
+      <c r="N24" s="74" t="s">
+        <v>188</v>
       </c>
       <c r="O24" s="67" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P24" s="76" t="s">
-        <v>171</v>
+      <c r="P24" s="75" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="25" ht="83.25" customHeight="1">
-      <c r="A25" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="81" t="s">
-        <v>172</v>
-      </c>
-      <c r="C25" s="82" t="s">
-        <v>173</v>
-      </c>
-      <c r="D25" s="83" t="s">
-        <v>174</v>
-      </c>
-      <c r="E25" s="84" t="s">
-        <v>175</v>
-      </c>
-      <c r="F25" s="85">
+      <c r="A25" s="79" t="s">
+        <v>190</v>
+      </c>
+      <c r="B25" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" s="81" t="s">
+        <v>192</v>
+      </c>
+      <c r="D25" s="82" t="s">
+        <v>193</v>
+      </c>
+      <c r="E25" s="83" t="s">
+        <v>194</v>
+      </c>
+      <c r="F25" s="84">
         <v>100.0</v>
       </c>
-      <c r="G25" s="86" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="86" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="J25" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="K25" s="87" t="s">
-        <v>176</v>
-      </c>
-      <c r="L25" s="88" t="s">
+      <c r="G25" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="L25" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="M25" s="88" t="s">
+      <c r="M25" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="89" t="s">
-        <v>177</v>
-      </c>
-      <c r="O25" s="90" t="str">
+      <c r="N25" s="88" t="s">
+        <v>196</v>
+      </c>
+      <c r="O25" s="89" t="str">
         <f>IMAGE("https://i.imgur.com/gys4itG.png", 4, 62, 62)
 </f>
         <v/>
       </c>
-      <c r="P25" s="91" t="s">
-        <v>178</v>
+      <c r="P25" s="90" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="92"/>
+      <c r="A26" s="91"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="93"/>
+      <c r="D26" s="92"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="94"/>
+      <c r="G26" s="93"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
-      <c r="K26" s="95"/>
+      <c r="K26" s="94"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
       <c r="O26" s="16"/>
-      <c r="P26" s="96"/>
+      <c r="P26" s="95"/>
     </row>
     <row r="27">
-      <c r="A27" s="97"/>
-      <c r="B27" s="98" t="s">
-        <v>179</v>
-      </c>
-      <c r="C27" s="99"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="101" t="s">
-        <v>180</v>
-      </c>
-      <c r="H27" s="102" t="s">
-        <v>181</v>
-      </c>
-      <c r="I27" s="102" t="s">
-        <v>182</v>
-      </c>
-      <c r="J27" s="103" t="s">
+      <c r="A27" s="96"/>
+      <c r="B27" s="97" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" s="98"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="100" t="s">
+        <v>199</v>
+      </c>
+      <c r="H27" s="101" t="s">
+        <v>200</v>
+      </c>
+      <c r="I27" s="101" t="s">
+        <v>201</v>
+      </c>
+      <c r="J27" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="K27" s="104"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="99"/>
-      <c r="N27" s="99"/>
-      <c r="O27" s="99"/>
-      <c r="P27" s="105"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="98"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="98"/>
+      <c r="P27" s="104"/>
     </row>
     <row r="28" ht="356.25" customHeight="1">
-      <c r="A28" s="106" t="s">
-        <v>183</v>
-      </c>
-      <c r="B28" s="107" t="s">
-        <v>184</v>
-      </c>
-      <c r="C28" s="108" t="s">
-        <v>185</v>
-      </c>
-      <c r="D28" s="109" t="s">
-        <v>186</v>
-      </c>
-      <c r="E28" s="110" t="s">
-        <v>187</v>
-      </c>
-      <c r="F28" s="110">
+      <c r="A28" s="105" t="s">
+        <v>202</v>
+      </c>
+      <c r="B28" s="106" t="s">
+        <v>203</v>
+      </c>
+      <c r="C28" s="107" t="s">
+        <v>204</v>
+      </c>
+      <c r="D28" s="108" t="s">
+        <v>205</v>
+      </c>
+      <c r="E28" s="109" t="s">
+        <v>206</v>
+      </c>
+      <c r="F28" s="109">
         <v>100.0</v>
       </c>
       <c r="G28" s="23" t="s">
@@ -7420,44 +7584,44 @@
       <c r="J28" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K28" s="111" t="s">
-        <v>188</v>
-      </c>
-      <c r="L28" s="112" t="s">
+      <c r="K28" s="110" t="s">
+        <v>207</v>
+      </c>
+      <c r="L28" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="M28" s="112" t="s">
+      <c r="M28" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="N28" s="113" t="s">
-        <v>189</v>
-      </c>
-      <c r="O28" s="114" t="str">
+      <c r="N28" s="112" t="s">
+        <v>208</v>
+      </c>
+      <c r="O28" s="113" t="str">
         <f>IMAGE("https://i.imgur.com/PNbQx4N.png", 4, 62, 62)
 </f>
         <v/>
       </c>
-      <c r="P28" s="115" t="s">
-        <v>190</v>
+      <c r="P28" s="114" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="29" ht="268.5" customHeight="1">
-      <c r="A29" s="116" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="117" t="s">
-        <v>191</v>
-      </c>
-      <c r="C29" s="118" t="s">
-        <v>192</v>
-      </c>
-      <c r="D29" s="119" t="s">
-        <v>193</v>
-      </c>
-      <c r="E29" s="79" t="s">
-        <v>194</v>
-      </c>
-      <c r="F29" s="79">
+      <c r="A29" s="115" t="s">
+        <v>210</v>
+      </c>
+      <c r="B29" s="116" t="s">
+        <v>211</v>
+      </c>
+      <c r="C29" s="117" t="s">
+        <v>212</v>
+      </c>
+      <c r="D29" s="118" t="s">
+        <v>213</v>
+      </c>
+      <c r="E29" s="78" t="s">
+        <v>214</v>
+      </c>
+      <c r="F29" s="78">
         <v>50.0</v>
       </c>
       <c r="G29" s="23" t="s">
@@ -7472,44 +7636,44 @@
       <c r="J29" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K29" s="120" t="s">
-        <v>195</v>
-      </c>
-      <c r="L29" s="74" t="s">
+      <c r="K29" s="119" t="s">
+        <v>215</v>
+      </c>
+      <c r="L29" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M29" s="74" t="s">
+      <c r="M29" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N29" s="75" t="s">
-        <v>196</v>
+      <c r="N29" s="74" t="s">
+        <v>216</v>
       </c>
       <c r="O29" s="67" t="str">
         <f>IMAGE("https://i.imgur.com/gys4itG.png", 4, 62, 62)
 </f>
         <v/>
       </c>
-      <c r="P29" s="76" t="s">
-        <v>197</v>
+      <c r="P29" s="75" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="30" ht="54.0" customHeight="1">
-      <c r="A30" s="121" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="117" t="s">
-        <v>198</v>
-      </c>
-      <c r="C30" s="122" t="s">
-        <v>199</v>
-      </c>
-      <c r="D30" s="123" t="s">
-        <v>200</v>
-      </c>
-      <c r="E30" s="72" t="s">
-        <v>201</v>
-      </c>
-      <c r="F30" s="72">
+      <c r="A30" s="120" t="s">
+        <v>218</v>
+      </c>
+      <c r="B30" s="116" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" s="121" t="s">
+        <v>220</v>
+      </c>
+      <c r="D30" s="122" t="s">
+        <v>221</v>
+      </c>
+      <c r="E30" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="F30" s="71">
         <v>50.0</v>
       </c>
       <c r="G30" s="23" t="s">
@@ -7524,44 +7688,44 @@
       <c r="J30" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K30" s="73" t="s">
-        <v>202</v>
-      </c>
-      <c r="L30" s="74" t="s">
+      <c r="K30" s="72" t="s">
+        <v>223</v>
+      </c>
+      <c r="L30" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M30" s="74" t="s">
+      <c r="M30" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N30" s="75" t="s">
-        <v>163</v>
+      <c r="N30" s="74" t="s">
+        <v>180</v>
       </c>
       <c r="O30" s="67" t="str">
         <f>IMAGE("https://i.imgur.com/PNbQx4N.png", 4, 62, 62)
 </f>
         <v/>
       </c>
-      <c r="P30" s="76" t="s">
-        <v>203</v>
+      <c r="P30" s="75" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="31" ht="57.75" customHeight="1">
-      <c r="A31" s="124" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="117" t="s">
-        <v>204</v>
-      </c>
-      <c r="C31" s="125" t="s">
-        <v>205</v>
-      </c>
-      <c r="D31" s="123" t="s">
-        <v>206</v>
-      </c>
-      <c r="E31" s="79" t="s">
-        <v>207</v>
-      </c>
-      <c r="F31" s="79">
+      <c r="A31" s="120" t="s">
+        <v>225</v>
+      </c>
+      <c r="B31" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="C31" s="123" t="s">
+        <v>227</v>
+      </c>
+      <c r="D31" s="122" t="s">
+        <v>228</v>
+      </c>
+      <c r="E31" s="78" t="s">
+        <v>229</v>
+      </c>
+      <c r="F31" s="78">
         <v>100.0</v>
       </c>
       <c r="G31" s="23" t="s">
@@ -7576,44 +7740,44 @@
       <c r="J31" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K31" s="73" t="s">
-        <v>208</v>
-      </c>
-      <c r="L31" s="74" t="s">
+      <c r="K31" s="72" t="s">
+        <v>230</v>
+      </c>
+      <c r="L31" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M31" s="74" t="s">
+      <c r="M31" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N31" s="75" t="s">
-        <v>209</v>
+      <c r="N31" s="74" t="s">
+        <v>231</v>
       </c>
       <c r="O31" s="67" t="str">
         <f t="shared" ref="O31:O32" si="4">IMAGE("https://i.imgur.com/gys4itG.png", 4, 62, 62)
 </f>
         <v/>
       </c>
-      <c r="P31" s="126" t="s">
-        <v>210</v>
+      <c r="P31" s="124" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="32" ht="90.75" customHeight="1">
-      <c r="A32" s="121" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="127" t="s">
-        <v>211</v>
-      </c>
-      <c r="C32" s="128" t="s">
-        <v>212</v>
-      </c>
-      <c r="D32" s="71" t="s">
-        <v>213</v>
-      </c>
-      <c r="E32" s="79" t="s">
-        <v>214</v>
-      </c>
-      <c r="F32" s="79">
+      <c r="A32" s="120" t="s">
+        <v>233</v>
+      </c>
+      <c r="B32" s="125" t="s">
+        <v>234</v>
+      </c>
+      <c r="C32" s="126" t="s">
+        <v>235</v>
+      </c>
+      <c r="D32" s="70" t="s">
+        <v>236</v>
+      </c>
+      <c r="E32" s="78" t="s">
+        <v>237</v>
+      </c>
+      <c r="F32" s="78">
         <v>100.0</v>
       </c>
       <c r="G32" s="23" t="s">
@@ -7628,41 +7792,41 @@
       <c r="J32" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="120"/>
-      <c r="L32" s="74" t="s">
+      <c r="K32" s="119"/>
+      <c r="L32" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M32" s="74" t="s">
+      <c r="M32" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N32" s="75" t="s">
-        <v>209</v>
+      <c r="N32" s="74" t="s">
+        <v>231</v>
       </c>
       <c r="O32" s="67" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P32" s="76" t="s">
-        <v>215</v>
+      <c r="P32" s="75" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="33" ht="126.75" customHeight="1">
-      <c r="A33" s="116" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="129" t="s">
-        <v>216</v>
-      </c>
-      <c r="C33" s="122" t="s">
-        <v>217</v>
-      </c>
-      <c r="D33" s="119" t="s">
-        <v>218</v>
-      </c>
-      <c r="E33" s="79" t="s">
-        <v>219</v>
-      </c>
-      <c r="F33" s="79">
+      <c r="A33" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="B33" s="127" t="s">
+        <v>240</v>
+      </c>
+      <c r="C33" s="121" t="s">
+        <v>241</v>
+      </c>
+      <c r="D33" s="118" t="s">
+        <v>242</v>
+      </c>
+      <c r="E33" s="78" t="s">
+        <v>243</v>
+      </c>
+      <c r="F33" s="78">
         <v>30.0</v>
       </c>
       <c r="G33" s="23" t="s">
@@ -7677,42 +7841,42 @@
       <c r="J33" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K33" s="73" t="s">
-        <v>220</v>
-      </c>
-      <c r="L33" s="74" t="s">
+      <c r="K33" s="72" t="s">
+        <v>244</v>
+      </c>
+      <c r="L33" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M33" s="74" t="s">
+      <c r="M33" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N33" s="75" t="s">
-        <v>221</v>
+      <c r="N33" s="74" t="s">
+        <v>245</v>
       </c>
       <c r="O33" s="67" t="str">
         <f>IMAGE("https://i.imgur.com/PNbQx4N.png", 4, 62, 62)
 </f>
         <v/>
       </c>
-      <c r="P33" s="76" t="s">
-        <v>222</v>
+      <c r="P33" s="75" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="34" ht="531.0" customHeight="1">
-      <c r="A34" s="121" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="117" t="s">
-        <v>223</v>
-      </c>
-      <c r="C34" s="122" t="s">
-        <v>224</v>
-      </c>
-      <c r="D34" s="119" t="s">
-        <v>225</v>
-      </c>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79">
+      <c r="A34" s="120" t="s">
+        <v>247</v>
+      </c>
+      <c r="B34" s="116" t="s">
+        <v>248</v>
+      </c>
+      <c r="C34" s="121" t="s">
+        <v>249</v>
+      </c>
+      <c r="D34" s="118" t="s">
+        <v>250</v>
+      </c>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78">
         <v>50.0</v>
       </c>
       <c r="G34" s="23" t="s">
@@ -7727,42 +7891,42 @@
       <c r="J34" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K34" s="73" t="s">
-        <v>226</v>
-      </c>
-      <c r="L34" s="74" t="s">
+      <c r="K34" s="72" t="s">
+        <v>251</v>
+      </c>
+      <c r="L34" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M34" s="74" t="s">
+      <c r="M34" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N34" s="75" t="s">
-        <v>227</v>
+      <c r="N34" s="74" t="s">
+        <v>252</v>
       </c>
       <c r="O34" s="67" t="str">
         <f t="shared" ref="O34:O38" si="5">IMAGE("https://i.imgur.com/gys4itG.png", 4, 62, 62)
 </f>
         <v/>
       </c>
-      <c r="P34" s="130" t="s">
-        <v>228</v>
+      <c r="P34" s="128" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="35" ht="60.0" customHeight="1">
-      <c r="A35" s="121" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="127" t="s">
-        <v>229</v>
-      </c>
-      <c r="C35" s="131" t="s">
-        <v>230</v>
-      </c>
-      <c r="D35" s="71" t="s">
-        <v>231</v>
-      </c>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72">
+      <c r="A35" s="120" t="s">
+        <v>254</v>
+      </c>
+      <c r="B35" s="125" t="s">
+        <v>255</v>
+      </c>
+      <c r="C35" s="129" t="s">
+        <v>256</v>
+      </c>
+      <c r="D35" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71">
         <v>100.0</v>
       </c>
       <c r="G35" s="23" t="s">
@@ -7777,41 +7941,41 @@
       <c r="J35" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K35" s="120"/>
-      <c r="L35" s="74" t="s">
+      <c r="K35" s="119"/>
+      <c r="L35" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M35" s="74" t="s">
+      <c r="M35" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N35" s="75" t="s">
-        <v>232</v>
+      <c r="N35" s="74" t="s">
+        <v>258</v>
       </c>
       <c r="O35" s="67" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P35" s="76" t="s">
-        <v>233</v>
+      <c r="P35" s="75" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="36" ht="60.0" customHeight="1">
-      <c r="A36" s="121" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="117" t="s">
-        <v>234</v>
-      </c>
-      <c r="C36" s="122" t="s">
-        <v>235</v>
-      </c>
-      <c r="D36" s="119" t="s">
-        <v>236</v>
-      </c>
-      <c r="E36" s="79" t="s">
-        <v>237</v>
-      </c>
-      <c r="F36" s="79">
+      <c r="A36" s="120" t="s">
+        <v>260</v>
+      </c>
+      <c r="B36" s="116" t="s">
+        <v>261</v>
+      </c>
+      <c r="C36" s="121" t="s">
+        <v>262</v>
+      </c>
+      <c r="D36" s="118" t="s">
+        <v>263</v>
+      </c>
+      <c r="E36" s="78" t="s">
+        <v>264</v>
+      </c>
+      <c r="F36" s="78">
         <v>75.0</v>
       </c>
       <c r="G36" s="23" t="s">
@@ -7826,43 +7990,43 @@
       <c r="J36" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K36" s="73" t="s">
-        <v>238</v>
-      </c>
-      <c r="L36" s="74" t="s">
+      <c r="K36" s="72" t="s">
+        <v>265</v>
+      </c>
+      <c r="L36" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M36" s="74" t="s">
+      <c r="M36" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N36" s="75" t="s">
-        <v>239</v>
+      <c r="N36" s="74" t="s">
+        <v>266</v>
       </c>
       <c r="O36" s="67" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P36" s="76" t="s">
-        <v>240</v>
+      <c r="P36" s="75" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="37" ht="146.25" customHeight="1">
-      <c r="A37" s="116" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="127" t="s">
-        <v>241</v>
-      </c>
-      <c r="C37" s="131" t="s">
-        <v>242</v>
-      </c>
-      <c r="D37" s="119" t="s">
-        <v>243</v>
-      </c>
-      <c r="E37" s="79" t="s">
-        <v>244</v>
-      </c>
-      <c r="F37" s="79">
+      <c r="A37" s="120" t="s">
+        <v>268</v>
+      </c>
+      <c r="B37" s="125" t="s">
+        <v>269</v>
+      </c>
+      <c r="C37" s="129" t="s">
+        <v>270</v>
+      </c>
+      <c r="D37" s="118" t="s">
+        <v>271</v>
+      </c>
+      <c r="E37" s="78" t="s">
+        <v>272</v>
+      </c>
+      <c r="F37" s="78">
         <v>100.0</v>
       </c>
       <c r="G37" s="23" t="s">
@@ -7877,43 +8041,43 @@
       <c r="J37" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K37" s="73" t="s">
-        <v>245</v>
-      </c>
-      <c r="L37" s="74" t="s">
+      <c r="K37" s="72" t="s">
+        <v>273</v>
+      </c>
+      <c r="L37" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M37" s="74" t="s">
+      <c r="M37" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N37" s="75" t="s">
-        <v>246</v>
+      <c r="N37" s="74" t="s">
+        <v>274</v>
       </c>
       <c r="O37" s="67" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P37" s="76" t="s">
-        <v>247</v>
+      <c r="P37" s="75" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="38" ht="126.0" customHeight="1">
-      <c r="A38" s="132" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="133" t="s">
-        <v>248</v>
-      </c>
-      <c r="C38" s="134" t="s">
-        <v>249</v>
-      </c>
-      <c r="D38" s="71" t="s">
-        <v>250</v>
-      </c>
-      <c r="E38" s="72" t="s">
-        <v>251</v>
-      </c>
-      <c r="F38" s="79">
+      <c r="A38" s="120" t="s">
+        <v>276</v>
+      </c>
+      <c r="B38" s="130" t="s">
+        <v>277</v>
+      </c>
+      <c r="C38" s="131" t="s">
+        <v>278</v>
+      </c>
+      <c r="D38" s="70" t="s">
+        <v>279</v>
+      </c>
+      <c r="E38" s="71" t="s">
+        <v>280</v>
+      </c>
+      <c r="F38" s="78">
         <v>100.0</v>
       </c>
       <c r="G38" s="23" t="s">
@@ -7928,41 +8092,41 @@
       <c r="J38" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K38" s="120"/>
-      <c r="L38" s="135" t="s">
+      <c r="K38" s="119"/>
+      <c r="L38" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="M38" s="135" t="s">
+      <c r="M38" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="N38" s="75" t="s">
-        <v>252</v>
+      <c r="N38" s="74" t="s">
+        <v>281</v>
       </c>
       <c r="O38" s="67" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P38" s="126" t="s">
-        <v>253</v>
+      <c r="P38" s="124" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="39" ht="50.25" customHeight="1">
-      <c r="A39" s="121" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="117" t="s">
-        <v>254</v>
-      </c>
-      <c r="C39" s="118" t="s">
-        <v>255</v>
-      </c>
-      <c r="D39" s="123" t="s">
-        <v>256</v>
-      </c>
-      <c r="E39" s="79" t="s">
-        <v>257</v>
-      </c>
-      <c r="F39" s="79">
+      <c r="A39" s="115" t="s">
+        <v>283</v>
+      </c>
+      <c r="B39" s="116" t="s">
+        <v>284</v>
+      </c>
+      <c r="C39" s="117" t="s">
+        <v>285</v>
+      </c>
+      <c r="D39" s="122" t="s">
+        <v>286</v>
+      </c>
+      <c r="E39" s="78" t="s">
+        <v>287</v>
+      </c>
+      <c r="F39" s="78">
         <v>100.0</v>
       </c>
       <c r="G39" s="23" t="s">
@@ -7977,40 +8141,40 @@
       <c r="J39" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K39" s="120"/>
-      <c r="L39" s="74" t="s">
-        <v>258</v>
-      </c>
-      <c r="M39" s="74" t="s">
+      <c r="K39" s="119"/>
+      <c r="L39" s="73" t="s">
+        <v>288</v>
+      </c>
+      <c r="M39" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N39" s="75" t="s">
-        <v>227</v>
+      <c r="N39" s="74" t="s">
+        <v>252</v>
       </c>
       <c r="O39" s="67" t="str">
         <f>IMAGE("https://i.imgur.com/PNbQx4N.png", 4, 62, 62)
 </f>
         <v/>
       </c>
-      <c r="P39" s="130" t="s">
-        <v>259</v>
+      <c r="P39" s="128" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="40" ht="51.0" customHeight="1">
-      <c r="A40" s="121" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="127" t="s">
-        <v>260</v>
-      </c>
-      <c r="C40" s="136" t="s">
-        <v>261</v>
-      </c>
-      <c r="D40" s="123" t="s">
-        <v>262</v>
-      </c>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79">
+      <c r="A40" s="120" t="s">
+        <v>290</v>
+      </c>
+      <c r="B40" s="125" t="s">
+        <v>291</v>
+      </c>
+      <c r="C40" s="133" t="s">
+        <v>292</v>
+      </c>
+      <c r="D40" s="122" t="s">
+        <v>293</v>
+      </c>
+      <c r="E40" s="78"/>
+      <c r="F40" s="78">
         <v>100.0</v>
       </c>
       <c r="G40" s="23" t="s">
@@ -8025,44 +8189,44 @@
       <c r="J40" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K40" s="73" t="s">
-        <v>263</v>
-      </c>
-      <c r="L40" s="74" t="s">
+      <c r="K40" s="72" t="s">
+        <v>294</v>
+      </c>
+      <c r="L40" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M40" s="74" t="s">
+      <c r="M40" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N40" s="75" t="s">
-        <v>264</v>
+      <c r="N40" s="74" t="s">
+        <v>295</v>
       </c>
       <c r="O40" s="67" t="str">
         <f t="shared" ref="O40:O42" si="6">IMAGE("https://i.imgur.com/gys4itG.png", 4, 62, 62)
 </f>
         <v/>
       </c>
-      <c r="P40" s="76" t="s">
-        <v>265</v>
+      <c r="P40" s="75" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="41" ht="50.25" customHeight="1">
-      <c r="A41" s="121" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="117" t="s">
-        <v>266</v>
-      </c>
-      <c r="C41" s="118" t="s">
-        <v>267</v>
-      </c>
-      <c r="D41" s="123" t="s">
-        <v>268</v>
-      </c>
-      <c r="E41" s="79" t="s">
-        <v>269</v>
-      </c>
-      <c r="F41" s="79">
+      <c r="A41" s="120" t="s">
+        <v>297</v>
+      </c>
+      <c r="B41" s="116" t="s">
+        <v>298</v>
+      </c>
+      <c r="C41" s="117" t="s">
+        <v>299</v>
+      </c>
+      <c r="D41" s="122" t="s">
+        <v>300</v>
+      </c>
+      <c r="E41" s="78" t="s">
+        <v>301</v>
+      </c>
+      <c r="F41" s="78">
         <v>100.0</v>
       </c>
       <c r="G41" s="23" t="s">
@@ -8077,43 +8241,43 @@
       <c r="J41" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K41" s="73" t="s">
-        <v>270</v>
-      </c>
-      <c r="L41" s="74" t="s">
+      <c r="K41" s="72" t="s">
+        <v>302</v>
+      </c>
+      <c r="L41" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M41" s="74" t="s">
+      <c r="M41" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N41" s="75" t="s">
-        <v>271</v>
+      <c r="N41" s="74" t="s">
+        <v>303</v>
       </c>
       <c r="O41" s="67" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P41" s="130" t="s">
-        <v>272</v>
+      <c r="P41" s="128" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="42" ht="72.75" customHeight="1">
-      <c r="A42" s="121" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="117" t="s">
-        <v>273</v>
-      </c>
-      <c r="C42" s="125">
+      <c r="A42" s="120" t="s">
+        <v>305</v>
+      </c>
+      <c r="B42" s="116" t="s">
+        <v>306</v>
+      </c>
+      <c r="C42" s="123">
         <v>0.3</v>
       </c>
-      <c r="D42" s="119" t="s">
-        <v>274</v>
-      </c>
-      <c r="E42" s="79" t="s">
-        <v>275</v>
-      </c>
-      <c r="F42" s="79">
+      <c r="D42" s="118" t="s">
+        <v>307</v>
+      </c>
+      <c r="E42" s="78" t="s">
+        <v>308</v>
+      </c>
+      <c r="F42" s="78">
         <v>100.0</v>
       </c>
       <c r="G42" s="23" t="s">
@@ -8128,41 +8292,41 @@
       <c r="J42" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K42" s="73" t="s">
-        <v>270</v>
-      </c>
-      <c r="L42" s="74" t="s">
+      <c r="K42" s="72" t="s">
+        <v>302</v>
+      </c>
+      <c r="L42" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M42" s="74" t="s">
+      <c r="M42" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N42" s="75" t="s">
-        <v>271</v>
+      <c r="N42" s="74" t="s">
+        <v>303</v>
       </c>
       <c r="O42" s="67" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P42" s="130" t="s">
-        <v>276</v>
+      <c r="P42" s="128" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="43" ht="49.5" customHeight="1">
-      <c r="A43" s="116" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="117" t="s">
-        <v>277</v>
-      </c>
-      <c r="C43" s="122" t="s">
-        <v>278</v>
-      </c>
-      <c r="D43" s="137"/>
-      <c r="E43" s="79" t="s">
-        <v>279</v>
-      </c>
-      <c r="F43" s="79">
+      <c r="A43" s="120" t="s">
+        <v>310</v>
+      </c>
+      <c r="B43" s="116" t="s">
+        <v>311</v>
+      </c>
+      <c r="C43" s="121" t="s">
+        <v>312</v>
+      </c>
+      <c r="D43" s="134"/>
+      <c r="E43" s="78" t="s">
+        <v>313</v>
+      </c>
+      <c r="F43" s="78">
         <v>50.0</v>
       </c>
       <c r="G43" s="23" t="s">
@@ -8177,42 +8341,42 @@
       <c r="J43" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K43" s="73" t="s">
-        <v>280</v>
-      </c>
-      <c r="L43" s="74" t="s">
-        <v>281</v>
-      </c>
-      <c r="M43" s="74" t="s">
+      <c r="K43" s="72" t="s">
+        <v>314</v>
+      </c>
+      <c r="L43" s="73" t="s">
+        <v>315</v>
+      </c>
+      <c r="M43" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N43" s="75" t="s">
-        <v>282</v>
+      <c r="N43" s="74" t="s">
+        <v>316</v>
       </c>
       <c r="O43" s="67" t="str">
         <f t="shared" ref="O43:O46" si="7">IMAGE("https://i.imgur.com/PNbQx4N.png", 4, 62, 62)
 </f>
         <v/>
       </c>
-      <c r="P43" s="130" t="s">
-        <v>283</v>
+      <c r="P43" s="128" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="116" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" s="127" t="s">
-        <v>284</v>
-      </c>
-      <c r="C44" s="118" t="s">
-        <v>285</v>
-      </c>
-      <c r="D44" s="137"/>
-      <c r="E44" s="72" t="s">
-        <v>286</v>
-      </c>
-      <c r="F44" s="79">
+      <c r="A44" s="120" t="s">
+        <v>318</v>
+      </c>
+      <c r="B44" s="125" t="s">
+        <v>319</v>
+      </c>
+      <c r="C44" s="117" t="s">
+        <v>320</v>
+      </c>
+      <c r="D44" s="134"/>
+      <c r="E44" s="71" t="s">
+        <v>321</v>
+      </c>
+      <c r="F44" s="78">
         <v>50.0</v>
       </c>
       <c r="G44" s="23" t="s">
@@ -8227,41 +8391,41 @@
       <c r="J44" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K44" s="73" t="s">
-        <v>287</v>
-      </c>
-      <c r="L44" s="74" t="s">
-        <v>281</v>
-      </c>
-      <c r="M44" s="74" t="s">
+      <c r="K44" s="72" t="s">
+        <v>322</v>
+      </c>
+      <c r="L44" s="73" t="s">
+        <v>315</v>
+      </c>
+      <c r="M44" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N44" s="75" t="s">
-        <v>282</v>
+      <c r="N44" s="74" t="s">
+        <v>316</v>
       </c>
       <c r="O44" s="67" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P44" s="76" t="s">
-        <v>288</v>
+      <c r="P44" s="75" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="45" ht="46.5" customHeight="1">
-      <c r="A45" s="121" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="127" t="s">
-        <v>289</v>
-      </c>
-      <c r="C45" s="118" t="s">
-        <v>290</v>
-      </c>
-      <c r="D45" s="71"/>
-      <c r="E45" s="79" t="s">
-        <v>291</v>
-      </c>
-      <c r="F45" s="79">
+      <c r="A45" s="120" t="s">
+        <v>324</v>
+      </c>
+      <c r="B45" s="125" t="s">
+        <v>325</v>
+      </c>
+      <c r="C45" s="117" t="s">
+        <v>326</v>
+      </c>
+      <c r="D45" s="70"/>
+      <c r="E45" s="78" t="s">
+        <v>327</v>
+      </c>
+      <c r="F45" s="78">
         <v>50.0</v>
       </c>
       <c r="G45" s="23" t="s">
@@ -8276,43 +8440,43 @@
       <c r="J45" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K45" s="73" t="s">
-        <v>292</v>
-      </c>
-      <c r="L45" s="74" t="s">
+      <c r="K45" s="72" t="s">
+        <v>328</v>
+      </c>
+      <c r="L45" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M45" s="74" t="s">
+      <c r="M45" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N45" s="75" t="s">
-        <v>282</v>
+      <c r="N45" s="74" t="s">
+        <v>316</v>
       </c>
       <c r="O45" s="67" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P45" s="76" t="s">
-        <v>293</v>
+      <c r="P45" s="75" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="46" ht="67.5" customHeight="1">
-      <c r="A46" s="116" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="127" t="s">
-        <v>294</v>
-      </c>
-      <c r="C46" s="118" t="s">
-        <v>295</v>
-      </c>
-      <c r="D46" s="71" t="s">
-        <v>296</v>
-      </c>
-      <c r="E46" s="79" t="s">
-        <v>297</v>
-      </c>
-      <c r="F46" s="79">
+      <c r="A46" s="120" t="s">
+        <v>330</v>
+      </c>
+      <c r="B46" s="125" t="s">
+        <v>331</v>
+      </c>
+      <c r="C46" s="117" t="s">
+        <v>332</v>
+      </c>
+      <c r="D46" s="70" t="s">
+        <v>333</v>
+      </c>
+      <c r="E46" s="78" t="s">
+        <v>334</v>
+      </c>
+      <c r="F46" s="78">
         <v>100.0</v>
       </c>
       <c r="G46" s="23" t="s">
@@ -8327,43 +8491,43 @@
       <c r="J46" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K46" s="138" t="s">
-        <v>298</v>
-      </c>
-      <c r="L46" s="74" t="s">
+      <c r="K46" s="135" t="s">
+        <v>335</v>
+      </c>
+      <c r="L46" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M46" s="74" t="s">
+      <c r="M46" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N46" s="75" t="s">
-        <v>299</v>
+      <c r="N46" s="74" t="s">
+        <v>336</v>
       </c>
       <c r="O46" s="67" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="P46" s="76" t="s">
-        <v>300</v>
+      <c r="P46" s="75" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="47" ht="68.25" customHeight="1">
-      <c r="A47" s="121" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="127" t="s">
-        <v>301</v>
-      </c>
-      <c r="C47" s="128" t="s">
-        <v>302</v>
-      </c>
-      <c r="D47" s="71" t="s">
-        <v>303</v>
-      </c>
-      <c r="E47" s="79" t="s">
-        <v>304</v>
-      </c>
-      <c r="F47" s="79">
+      <c r="A47" s="120" t="s">
+        <v>338</v>
+      </c>
+      <c r="B47" s="125" t="s">
+        <v>339</v>
+      </c>
+      <c r="C47" s="126" t="s">
+        <v>340</v>
+      </c>
+      <c r="D47" s="70" t="s">
+        <v>341</v>
+      </c>
+      <c r="E47" s="78" t="s">
+        <v>342</v>
+      </c>
+      <c r="F47" s="78">
         <v>100.0</v>
       </c>
       <c r="G47" s="23" t="s">
@@ -8378,44 +8542,44 @@
       <c r="J47" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K47" s="73" t="s">
-        <v>305</v>
-      </c>
-      <c r="L47" s="74" t="s">
+      <c r="K47" s="72" t="s">
+        <v>343</v>
+      </c>
+      <c r="L47" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M47" s="74" t="s">
+      <c r="M47" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N47" s="75" t="s">
-        <v>189</v>
+      <c r="N47" s="74" t="s">
+        <v>208</v>
       </c>
       <c r="O47" s="67" t="str">
         <f t="shared" ref="O47:O49" si="8">IMAGE("https://i.imgur.com/gys4itG.png", 4, 62, 62)
 </f>
         <v/>
       </c>
-      <c r="P47" s="76" t="s">
-        <v>110</v>
+      <c r="P47" s="75" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="48" ht="80.25" customHeight="1">
-      <c r="A48" s="116" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" s="127" t="s">
-        <v>306</v>
-      </c>
-      <c r="C48" s="118" t="s">
-        <v>307</v>
-      </c>
-      <c r="D48" s="71" t="s">
+      <c r="A48" s="120" t="s">
+        <v>344</v>
+      </c>
+      <c r="B48" s="125" t="s">
+        <v>345</v>
+      </c>
+      <c r="C48" s="117" t="s">
+        <v>346</v>
+      </c>
+      <c r="D48" s="70" t="s">
+        <v>347</v>
+      </c>
+      <c r="E48" s="78" t="s">
         <v>308</v>
       </c>
-      <c r="E48" s="79" t="s">
-        <v>275</v>
-      </c>
-      <c r="F48" s="79">
+      <c r="F48" s="78">
         <v>100.0</v>
       </c>
       <c r="G48" s="23" t="s">
@@ -8430,43 +8594,43 @@
       <c r="J48" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K48" s="73" t="s">
-        <v>309</v>
-      </c>
-      <c r="L48" s="74" t="s">
+      <c r="K48" s="72" t="s">
+        <v>348</v>
+      </c>
+      <c r="L48" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M48" s="74" t="s">
+      <c r="M48" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N48" s="75" t="s">
-        <v>310</v>
+      <c r="N48" s="74" t="s">
+        <v>349</v>
       </c>
       <c r="O48" s="67" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P48" s="76" t="s">
-        <v>311</v>
+      <c r="P48" s="75" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="49" ht="50.25" customHeight="1">
-      <c r="A49" s="116" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="117" t="s">
-        <v>312</v>
-      </c>
-      <c r="C49" s="122" t="s">
-        <v>313</v>
-      </c>
-      <c r="D49" s="123" t="s">
-        <v>314</v>
-      </c>
-      <c r="E49" s="79" t="s">
-        <v>315</v>
-      </c>
-      <c r="F49" s="79">
+      <c r="A49" s="120" t="s">
+        <v>351</v>
+      </c>
+      <c r="B49" s="116" t="s">
+        <v>352</v>
+      </c>
+      <c r="C49" s="121" t="s">
+        <v>353</v>
+      </c>
+      <c r="D49" s="122" t="s">
+        <v>354</v>
+      </c>
+      <c r="E49" s="78" t="s">
+        <v>355</v>
+      </c>
+      <c r="F49" s="78">
         <v>100.0</v>
       </c>
       <c r="G49" s="23" t="s">
@@ -8481,43 +8645,43 @@
       <c r="J49" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K49" s="73" t="s">
-        <v>316</v>
-      </c>
-      <c r="L49" s="74" t="s">
+      <c r="K49" s="72" t="s">
+        <v>356</v>
+      </c>
+      <c r="L49" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M49" s="74" t="s">
+      <c r="M49" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N49" s="75" t="s">
-        <v>317</v>
+      <c r="N49" s="74" t="s">
+        <v>357</v>
       </c>
       <c r="O49" s="67" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P49" s="76" t="s">
-        <v>318</v>
+      <c r="P49" s="75" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="50" ht="50.25" customHeight="1">
-      <c r="A50" s="121" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" s="127" t="s">
-        <v>319</v>
-      </c>
-      <c r="C50" s="118" t="s">
-        <v>320</v>
-      </c>
-      <c r="D50" s="123" t="s">
-        <v>321</v>
-      </c>
-      <c r="E50" s="79" t="s">
-        <v>322</v>
-      </c>
-      <c r="F50" s="79">
+      <c r="A50" s="120" t="s">
+        <v>359</v>
+      </c>
+      <c r="B50" s="125" t="s">
+        <v>360</v>
+      </c>
+      <c r="C50" s="117" t="s">
+        <v>361</v>
+      </c>
+      <c r="D50" s="122" t="s">
+        <v>362</v>
+      </c>
+      <c r="E50" s="78" t="s">
+        <v>363</v>
+      </c>
+      <c r="F50" s="78">
         <v>100.0</v>
       </c>
       <c r="G50" s="23" t="s">
@@ -8532,135 +8696,135 @@
       <c r="J50" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K50" s="73" t="s">
-        <v>323</v>
-      </c>
-      <c r="L50" s="74" t="s">
+      <c r="K50" s="72" t="s">
+        <v>364</v>
+      </c>
+      <c r="L50" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M50" s="74" t="s">
+      <c r="M50" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N50" s="75" t="s">
-        <v>324</v>
+      <c r="N50" s="74" t="s">
+        <v>365</v>
       </c>
       <c r="O50" s="67" t="str">
         <f t="shared" ref="O50:O51" si="9">IMAGE("https://i.imgur.com/PNbQx4N.png", 4, 62, 62)
 </f>
         <v/>
       </c>
-      <c r="P50" s="76" t="s">
-        <v>325</v>
+      <c r="P50" s="75" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="51" ht="51.0" customHeight="1">
-      <c r="A51" s="139" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="140" t="s">
-        <v>326</v>
-      </c>
-      <c r="C51" s="141" t="s">
-        <v>327</v>
-      </c>
-      <c r="D51" s="142"/>
-      <c r="E51" s="143"/>
-      <c r="F51" s="143">
+      <c r="A51" s="136" t="s">
+        <v>367</v>
+      </c>
+      <c r="B51" s="137" t="s">
+        <v>368</v>
+      </c>
+      <c r="C51" s="138" t="s">
+        <v>369</v>
+      </c>
+      <c r="D51" s="139"/>
+      <c r="E51" s="140"/>
+      <c r="F51" s="140">
         <v>50.0</v>
       </c>
-      <c r="G51" s="86" t="s">
-        <v>29</v>
-      </c>
-      <c r="H51" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="I51" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="J51" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="K51" s="144"/>
-      <c r="L51" s="145" t="s">
-        <v>328</v>
-      </c>
-      <c r="M51" s="145" t="s">
+      <c r="G51" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="H51" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="I51" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="J51" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="K51" s="141"/>
+      <c r="L51" s="142" t="s">
+        <v>370</v>
+      </c>
+      <c r="M51" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="N51" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="O51" s="90" t="str">
+      <c r="N51" s="143" t="s">
+        <v>252</v>
+      </c>
+      <c r="O51" s="89" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="P51" s="147" t="s">
-        <v>329</v>
+      <c r="P51" s="144" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="92"/>
-      <c r="B52" s="148"/>
+      <c r="A52" s="91"/>
+      <c r="B52" s="145"/>
       <c r="C52" s="10"/>
-      <c r="D52" s="93"/>
+      <c r="D52" s="92"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
-      <c r="G52" s="94"/>
+      <c r="G52" s="93"/>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
-      <c r="K52" s="95"/>
+      <c r="K52" s="94"/>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
-      <c r="P52" s="96"/>
+      <c r="P52" s="95"/>
     </row>
     <row r="53">
-      <c r="A53" s="149"/>
-      <c r="B53" s="150" t="s">
-        <v>330</v>
-      </c>
-      <c r="C53" s="99"/>
-      <c r="D53" s="100"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="99"/>
-      <c r="G53" s="101" t="s">
-        <v>331</v>
-      </c>
-      <c r="H53" s="102" t="s">
-        <v>332</v>
-      </c>
-      <c r="I53" s="102" t="s">
-        <v>333</v>
-      </c>
-      <c r="J53" s="103" t="s">
+      <c r="A53" s="146"/>
+      <c r="B53" s="147" t="s">
+        <v>372</v>
+      </c>
+      <c r="C53" s="98"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="98"/>
+      <c r="F53" s="98"/>
+      <c r="G53" s="100" t="s">
+        <v>373</v>
+      </c>
+      <c r="H53" s="101" t="s">
+        <v>374</v>
+      </c>
+      <c r="I53" s="101" t="s">
+        <v>375</v>
+      </c>
+      <c r="J53" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="K53" s="104"/>
-      <c r="L53" s="99"/>
-      <c r="M53" s="99"/>
-      <c r="N53" s="99"/>
-      <c r="O53" s="99"/>
-      <c r="P53" s="105"/>
+      <c r="K53" s="103"/>
+      <c r="L53" s="98"/>
+      <c r="M53" s="98"/>
+      <c r="N53" s="98"/>
+      <c r="O53" s="98"/>
+      <c r="P53" s="104"/>
     </row>
     <row r="54" ht="74.25" customHeight="1">
-      <c r="A54" s="151" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="152" t="s">
-        <v>334</v>
-      </c>
-      <c r="C54" s="153" t="s">
-        <v>335</v>
-      </c>
-      <c r="D54" s="154" t="s">
-        <v>336</v>
-      </c>
-      <c r="E54" s="110" t="s">
-        <v>337</v>
-      </c>
-      <c r="F54" s="110">
+      <c r="A54" s="148" t="s">
+        <v>376</v>
+      </c>
+      <c r="B54" s="149" t="s">
+        <v>377</v>
+      </c>
+      <c r="C54" s="150" t="s">
+        <v>378</v>
+      </c>
+      <c r="D54" s="151" t="s">
+        <v>379</v>
+      </c>
+      <c r="E54" s="109" t="s">
+        <v>380</v>
+      </c>
+      <c r="F54" s="109">
         <v>100.0</v>
       </c>
       <c r="G54" s="23" t="s">
@@ -8675,44 +8839,42 @@
       <c r="J54" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K54" s="111" t="s">
+      <c r="K54" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="L54" s="112" t="s">
+      <c r="L54" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="M54" s="112" t="s">
+      <c r="M54" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="N54" s="113" t="s">
-        <v>338</v>
-      </c>
-      <c r="O54" s="114" t="str">
+      <c r="N54" s="112" t="s">
+        <v>381</v>
+      </c>
+      <c r="O54" s="113" t="str">
         <f t="shared" ref="O54:O56" si="10">IMAGE("https://i.imgur.com/gys4itG.png", 4, 62, 62)
 </f>
         <v/>
       </c>
-      <c r="P54" s="115" t="s">
-        <v>339</v>
+      <c r="P54" s="114" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="55" ht="90.75" customHeight="1">
-      <c r="A55" s="155" t="s">
-        <v>340</v>
-      </c>
-      <c r="B55" s="156" t="s">
-        <v>341</v>
-      </c>
-      <c r="C55" s="157" t="s">
-        <v>342</v>
-      </c>
-      <c r="D55" s="158" t="s">
-        <v>343</v>
-      </c>
-      <c r="E55" s="79" t="s">
-        <v>344</v>
-      </c>
-      <c r="F55" s="79">
+      <c r="A55" s="152"/>
+      <c r="B55" s="153" t="s">
+        <v>383</v>
+      </c>
+      <c r="C55" s="154" t="s">
+        <v>384</v>
+      </c>
+      <c r="D55" s="155" t="s">
+        <v>385</v>
+      </c>
+      <c r="E55" s="78" t="s">
+        <v>386</v>
+      </c>
+      <c r="F55" s="78">
         <v>50.0</v>
       </c>
       <c r="G55" s="23" t="s">
@@ -8727,39 +8889,39 @@
       <c r="J55" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K55" s="73" t="s">
-        <v>345</v>
-      </c>
-      <c r="L55" s="74" t="s">
-        <v>346</v>
-      </c>
-      <c r="M55" s="74" t="s">
+      <c r="K55" s="72" t="s">
+        <v>387</v>
+      </c>
+      <c r="L55" s="73" t="s">
+        <v>388</v>
+      </c>
+      <c r="M55" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N55" s="75" t="s">
-        <v>347</v>
+      <c r="N55" s="74" t="s">
+        <v>389</v>
       </c>
       <c r="O55" s="67" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P55" s="76" t="s">
-        <v>348</v>
+      <c r="P55" s="75" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="56" ht="51.0" customHeight="1">
-      <c r="A56" s="159" t="s">
-        <v>52</v>
-      </c>
-      <c r="B56" s="160" t="s">
-        <v>349</v>
-      </c>
-      <c r="C56" s="161" t="s">
-        <v>67</v>
-      </c>
-      <c r="D56" s="137"/>
-      <c r="E56" s="79"/>
-      <c r="F56" s="79">
+      <c r="A56" s="156" t="s">
+        <v>391</v>
+      </c>
+      <c r="B56" s="157" t="s">
+        <v>392</v>
+      </c>
+      <c r="C56" s="158" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" s="134"/>
+      <c r="E56" s="78"/>
+      <c r="F56" s="78">
         <v>100.0</v>
       </c>
       <c r="G56" s="23" t="s">
@@ -8774,41 +8936,41 @@
       <c r="J56" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K56" s="73" t="s">
-        <v>350</v>
-      </c>
-      <c r="L56" s="74" t="s">
+      <c r="K56" s="72" t="s">
+        <v>393</v>
+      </c>
+      <c r="L56" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M56" s="74" t="s">
+      <c r="M56" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N56" s="75" t="s">
-        <v>351</v>
+      <c r="N56" s="74" t="s">
+        <v>394</v>
       </c>
       <c r="O56" s="67" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P56" s="130" t="s">
-        <v>352</v>
+      <c r="P56" s="128" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="57" ht="50.25" customHeight="1">
-      <c r="A57" s="159" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="160" t="s">
-        <v>353</v>
-      </c>
-      <c r="C57" s="70" t="s">
-        <v>354</v>
-      </c>
-      <c r="D57" s="71" t="s">
-        <v>355</v>
-      </c>
-      <c r="E57" s="79"/>
-      <c r="F57" s="79">
+      <c r="A57" s="156" t="s">
+        <v>396</v>
+      </c>
+      <c r="B57" s="157" t="s">
+        <v>397</v>
+      </c>
+      <c r="C57" s="69" t="s">
+        <v>398</v>
+      </c>
+      <c r="D57" s="70" t="s">
+        <v>399</v>
+      </c>
+      <c r="E57" s="78"/>
+      <c r="F57" s="78">
         <v>50.0</v>
       </c>
       <c r="G57" s="23" t="s">
@@ -8823,44 +8985,44 @@
       <c r="J57" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K57" s="73" t="s">
-        <v>356</v>
+      <c r="K57" s="72" t="s">
+        <v>400</v>
       </c>
       <c r="L57" s="67" t="s">
-        <v>357</v>
-      </c>
-      <c r="M57" s="74" t="s">
+        <v>401</v>
+      </c>
+      <c r="M57" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N57" s="75" t="s">
-        <v>353</v>
+      <c r="N57" s="74" t="s">
+        <v>397</v>
       </c>
       <c r="O57" s="67" t="str">
         <f t="shared" ref="O57:O58" si="11">IMAGE("https://i.imgur.com/PNbQx4N.png", 4, 62, 62)
 </f>
         <v/>
       </c>
-      <c r="P57" s="76" t="s">
-        <v>358</v>
+      <c r="P57" s="75" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="58" ht="58.5" customHeight="1">
       <c r="A58" s="159" t="s">
-        <v>52</v>
-      </c>
-      <c r="B58" s="162" t="s">
-        <v>359</v>
-      </c>
-      <c r="C58" s="163" t="s">
-        <v>173</v>
-      </c>
-      <c r="D58" s="164" t="s">
-        <v>360</v>
-      </c>
-      <c r="E58" s="79" t="s">
-        <v>175</v>
-      </c>
-      <c r="F58" s="79">
+        <v>403</v>
+      </c>
+      <c r="B58" s="160" t="s">
+        <v>404</v>
+      </c>
+      <c r="C58" s="161" t="s">
+        <v>192</v>
+      </c>
+      <c r="D58" s="162" t="s">
+        <v>405</v>
+      </c>
+      <c r="E58" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="F58" s="78">
         <v>100.0</v>
       </c>
       <c r="G58" s="23" t="s">
@@ -8875,141 +9037,141 @@
       <c r="J58" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K58" s="73" t="s">
-        <v>238</v>
-      </c>
-      <c r="L58" s="74" t="s">
+      <c r="K58" s="72" t="s">
+        <v>265</v>
+      </c>
+      <c r="L58" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M58" s="74" t="s">
+      <c r="M58" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N58" s="75" t="s">
-        <v>353</v>
+      <c r="N58" s="74" t="s">
+        <v>397</v>
       </c>
       <c r="O58" s="67" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="P58" s="130" t="s">
-        <v>361</v>
+      <c r="P58" s="128" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="59" ht="190.5" customHeight="1">
-      <c r="A59" s="165" t="s">
-        <v>52</v>
-      </c>
-      <c r="B59" s="166" t="s">
-        <v>362</v>
-      </c>
-      <c r="C59" s="167" t="s">
-        <v>363</v>
-      </c>
-      <c r="D59" s="168" t="s">
-        <v>364</v>
-      </c>
-      <c r="E59" s="143" t="s">
-        <v>365</v>
-      </c>
-      <c r="F59" s="143">
+      <c r="A59" s="163" t="s">
+        <v>407</v>
+      </c>
+      <c r="B59" s="164" t="s">
+        <v>408</v>
+      </c>
+      <c r="C59" s="165" t="s">
+        <v>409</v>
+      </c>
+      <c r="D59" s="166" t="s">
+        <v>410</v>
+      </c>
+      <c r="E59" s="140" t="s">
+        <v>411</v>
+      </c>
+      <c r="F59" s="140">
         <v>100.0</v>
       </c>
-      <c r="G59" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="H59" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="I59" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="J59" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="K59" s="169" t="s">
-        <v>366</v>
-      </c>
-      <c r="L59" s="145" t="s">
+      <c r="G59" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="H59" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="I59" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="J59" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="K59" s="167" t="s">
+        <v>412</v>
+      </c>
+      <c r="L59" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="M59" s="145" t="s">
+      <c r="M59" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="N59" s="146" t="s">
+      <c r="N59" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="O59" s="90" t="str">
+      <c r="O59" s="89" t="str">
         <f>IMAGE("https://i.imgur.com/gys4itG.png", 4, 62, 62)
 </f>
         <v/>
       </c>
-      <c r="P59" s="170" t="s">
-        <v>367</v>
+      <c r="P59" s="168" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="92"/>
-      <c r="B60" s="148"/>
+      <c r="A60" s="91"/>
+      <c r="B60" s="145"/>
       <c r="C60" s="10"/>
-      <c r="D60" s="93"/>
+      <c r="D60" s="92"/>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
-      <c r="G60" s="94"/>
+      <c r="G60" s="93"/>
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
-      <c r="K60" s="95"/>
+      <c r="K60" s="94"/>
       <c r="L60" s="10"/>
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
       <c r="O60" s="10"/>
-      <c r="P60" s="96"/>
+      <c r="P60" s="95"/>
     </row>
     <row r="61">
-      <c r="A61" s="149"/>
-      <c r="B61" s="171" t="s">
-        <v>368</v>
-      </c>
-      <c r="C61" s="99"/>
-      <c r="D61" s="100"/>
-      <c r="E61" s="99"/>
-      <c r="F61" s="99"/>
-      <c r="G61" s="101" t="s">
-        <v>369</v>
-      </c>
-      <c r="H61" s="102" t="s">
-        <v>370</v>
-      </c>
-      <c r="I61" s="102" t="s">
-        <v>371</v>
-      </c>
-      <c r="J61" s="103" t="s">
+      <c r="A61" s="146"/>
+      <c r="B61" s="169" t="s">
+        <v>414</v>
+      </c>
+      <c r="C61" s="98"/>
+      <c r="D61" s="99"/>
+      <c r="E61" s="98"/>
+      <c r="F61" s="98"/>
+      <c r="G61" s="100" t="s">
+        <v>415</v>
+      </c>
+      <c r="H61" s="101" t="s">
+        <v>416</v>
+      </c>
+      <c r="I61" s="101" t="s">
+        <v>417</v>
+      </c>
+      <c r="J61" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="K61" s="104"/>
-      <c r="L61" s="99"/>
-      <c r="M61" s="99"/>
-      <c r="N61" s="99"/>
-      <c r="O61" s="99"/>
-      <c r="P61" s="105"/>
+      <c r="K61" s="103"/>
+      <c r="L61" s="98"/>
+      <c r="M61" s="98"/>
+      <c r="N61" s="98"/>
+      <c r="O61" s="98"/>
+      <c r="P61" s="104"/>
     </row>
     <row r="62" ht="49.5" customHeight="1">
-      <c r="A62" s="172" t="s">
-        <v>52</v>
-      </c>
-      <c r="B62" s="173" t="s">
-        <v>372</v>
-      </c>
-      <c r="C62" s="174">
+      <c r="A62" s="170" t="s">
+        <v>418</v>
+      </c>
+      <c r="B62" s="171" t="s">
+        <v>419</v>
+      </c>
+      <c r="C62" s="172">
         <v>0.8</v>
       </c>
-      <c r="D62" s="154" t="s">
-        <v>373</v>
-      </c>
-      <c r="E62" s="110" t="s">
-        <v>374</v>
-      </c>
-      <c r="F62" s="110">
+      <c r="D62" s="151" t="s">
+        <v>420</v>
+      </c>
+      <c r="E62" s="109" t="s">
+        <v>421</v>
+      </c>
+      <c r="F62" s="109">
         <v>100.0</v>
       </c>
       <c r="G62" s="23" t="s">
@@ -9024,42 +9186,42 @@
       <c r="J62" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K62" s="175"/>
-      <c r="L62" s="112" t="s">
-        <v>328</v>
-      </c>
-      <c r="M62" s="176" t="s">
-        <v>375</v>
-      </c>
-      <c r="N62" s="113" t="s">
-        <v>376</v>
-      </c>
-      <c r="O62" s="114" t="str">
+      <c r="K62" s="173"/>
+      <c r="L62" s="111" t="s">
+        <v>370</v>
+      </c>
+      <c r="M62" s="174" t="s">
+        <v>422</v>
+      </c>
+      <c r="N62" s="112" t="s">
+        <v>423</v>
+      </c>
+      <c r="O62" s="113" t="str">
         <f t="shared" ref="O62:O63" si="12">IMAGE("https://i.imgur.com/gys4itG.png", 4, 62, 62)
 </f>
         <v/>
       </c>
-      <c r="P62" s="115" t="s">
-        <v>377</v>
+      <c r="P62" s="114" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="63" ht="48.75" customHeight="1">
-      <c r="A63" s="177" t="s">
-        <v>52</v>
-      </c>
-      <c r="B63" s="178" t="s">
-        <v>378</v>
-      </c>
-      <c r="C63" s="179">
+      <c r="A63" s="175" t="s">
+        <v>425</v>
+      </c>
+      <c r="B63" s="176" t="s">
+        <v>426</v>
+      </c>
+      <c r="C63" s="177">
         <v>0.8</v>
       </c>
-      <c r="D63" s="123" t="s">
-        <v>373</v>
-      </c>
-      <c r="E63" s="79" t="s">
-        <v>374</v>
-      </c>
-      <c r="F63" s="79">
+      <c r="D63" s="122" t="s">
+        <v>420</v>
+      </c>
+      <c r="E63" s="78" t="s">
+        <v>421</v>
+      </c>
+      <c r="F63" s="78">
         <v>100.0</v>
       </c>
       <c r="G63" s="23" t="s">
@@ -9074,39 +9236,39 @@
       <c r="J63" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K63" s="73" t="s">
-        <v>379</v>
-      </c>
-      <c r="L63" s="74" t="s">
+      <c r="K63" s="72" t="s">
+        <v>427</v>
+      </c>
+      <c r="L63" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M63" s="74" t="s">
+      <c r="M63" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N63" s="75" t="s">
-        <v>378</v>
+      <c r="N63" s="74" t="s">
+        <v>426</v>
       </c>
       <c r="O63" s="67" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P63" s="76" t="s">
-        <v>380</v>
+      <c r="P63" s="75" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="64" ht="51.0" customHeight="1">
-      <c r="A64" s="180" t="s">
-        <v>52</v>
-      </c>
-      <c r="B64" s="178" t="s">
-        <v>381</v>
-      </c>
-      <c r="C64" s="179">
+      <c r="A64" s="175" t="s">
+        <v>429</v>
+      </c>
+      <c r="B64" s="176" t="s">
+        <v>430</v>
+      </c>
+      <c r="C64" s="177">
         <v>0.75</v>
       </c>
-      <c r="D64" s="137"/>
-      <c r="E64" s="79"/>
-      <c r="F64" s="79">
+      <c r="D64" s="134"/>
+      <c r="E64" s="78"/>
+      <c r="F64" s="78">
         <v>50.0</v>
       </c>
       <c r="G64" s="23" t="s">
@@ -9121,44 +9283,44 @@
       <c r="J64" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K64" s="181" t="s">
-        <v>382</v>
-      </c>
-      <c r="L64" s="74" t="s">
-        <v>328</v>
-      </c>
-      <c r="M64" s="74" t="s">
+      <c r="K64" s="178" t="s">
+        <v>431</v>
+      </c>
+      <c r="L64" s="73" t="s">
+        <v>370</v>
+      </c>
+      <c r="M64" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N64" s="75" t="s">
-        <v>282</v>
+      <c r="N64" s="74" t="s">
+        <v>316</v>
       </c>
       <c r="O64" s="67" t="str">
         <f>IMAGE("https://i.imgur.com/PNbQx4N.png", 4, 62, 62)
 </f>
         <v/>
       </c>
-      <c r="P64" s="76" t="s">
-        <v>383</v>
+      <c r="P64" s="75" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="65" ht="50.25" customHeight="1">
-      <c r="A65" s="180" t="s">
-        <v>52</v>
-      </c>
-      <c r="B65" s="178" t="s">
-        <v>384</v>
-      </c>
-      <c r="C65" s="179">
+      <c r="A65" s="175" t="s">
+        <v>433</v>
+      </c>
+      <c r="B65" s="176" t="s">
+        <v>434</v>
+      </c>
+      <c r="C65" s="177">
         <v>0.5</v>
       </c>
-      <c r="D65" s="123" t="s">
-        <v>385</v>
-      </c>
-      <c r="E65" s="79" t="s">
-        <v>214</v>
-      </c>
-      <c r="F65" s="79">
+      <c r="D65" s="122" t="s">
+        <v>435</v>
+      </c>
+      <c r="E65" s="78" t="s">
+        <v>237</v>
+      </c>
+      <c r="F65" s="78">
         <v>100.0</v>
       </c>
       <c r="G65" s="23" t="s">
@@ -9173,42 +9335,42 @@
       <c r="J65" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K65" s="181"/>
-      <c r="L65" s="74" t="s">
-        <v>328</v>
-      </c>
-      <c r="M65" s="182" t="s">
-        <v>375</v>
-      </c>
-      <c r="N65" s="75" t="s">
-        <v>386</v>
+      <c r="K65" s="178"/>
+      <c r="L65" s="73" t="s">
+        <v>370</v>
+      </c>
+      <c r="M65" s="179" t="s">
+        <v>422</v>
+      </c>
+      <c r="N65" s="74" t="s">
+        <v>436</v>
       </c>
       <c r="O65" s="67" t="str">
         <f t="shared" ref="O65:O75" si="13">IMAGE("https://i.imgur.com/gys4itG.png", 4, 62, 62)
 </f>
         <v/>
       </c>
-      <c r="P65" s="76" t="s">
-        <v>387</v>
+      <c r="P65" s="75" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="66" ht="51.0" customHeight="1">
-      <c r="A66" s="183" t="s">
-        <v>52</v>
-      </c>
-      <c r="B66" s="178" t="s">
-        <v>388</v>
-      </c>
-      <c r="C66" s="179">
+      <c r="A66" s="175" t="s">
+        <v>438</v>
+      </c>
+      <c r="B66" s="176" t="s">
+        <v>439</v>
+      </c>
+      <c r="C66" s="177">
         <v>0.5</v>
       </c>
-      <c r="D66" s="123" t="s">
-        <v>389</v>
-      </c>
-      <c r="E66" s="79" t="s">
-        <v>390</v>
-      </c>
-      <c r="F66" s="79">
+      <c r="D66" s="122" t="s">
+        <v>440</v>
+      </c>
+      <c r="E66" s="78" t="s">
+        <v>441</v>
+      </c>
+      <c r="F66" s="78">
         <v>100.0</v>
       </c>
       <c r="G66" s="23" t="s">
@@ -9223,41 +9385,41 @@
       <c r="J66" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K66" s="73" t="s">
-        <v>391</v>
-      </c>
-      <c r="L66" s="74" t="s">
+      <c r="K66" s="72" t="s">
+        <v>442</v>
+      </c>
+      <c r="L66" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M66" s="74" t="s">
+      <c r="M66" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N66" s="75" t="s">
-        <v>392</v>
+      <c r="N66" s="74" t="s">
+        <v>443</v>
       </c>
       <c r="O66" s="67" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="P66" s="130" t="s">
-        <v>393</v>
+      <c r="P66" s="128" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="67" ht="51.75" customHeight="1">
-      <c r="A67" s="180" t="s">
-        <v>52</v>
-      </c>
-      <c r="B67" s="178" t="s">
-        <v>394</v>
-      </c>
-      <c r="C67" s="179">
+      <c r="A67" s="175" t="s">
+        <v>445</v>
+      </c>
+      <c r="B67" s="176" t="s">
+        <v>446</v>
+      </c>
+      <c r="C67" s="177">
         <v>0.4</v>
       </c>
-      <c r="D67" s="137"/>
-      <c r="E67" s="72" t="s">
-        <v>395</v>
-      </c>
-      <c r="F67" s="79">
+      <c r="D67" s="134"/>
+      <c r="E67" s="71" t="s">
+        <v>447</v>
+      </c>
+      <c r="F67" s="78">
         <v>75.0</v>
       </c>
       <c r="G67" s="23" t="s">
@@ -9272,43 +9434,43 @@
       <c r="J67" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K67" s="73" t="s">
-        <v>396</v>
-      </c>
-      <c r="L67" s="74" t="s">
+      <c r="K67" s="72" t="s">
+        <v>448</v>
+      </c>
+      <c r="L67" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M67" s="74" t="s">
+      <c r="M67" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N67" s="75" t="s">
-        <v>397</v>
+      <c r="N67" s="74" t="s">
+        <v>449</v>
       </c>
       <c r="O67" s="67" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="P67" s="76" t="s">
-        <v>398</v>
+      <c r="P67" s="75" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="68" ht="73.5" customHeight="1">
-      <c r="A68" s="183" t="s">
-        <v>52</v>
-      </c>
-      <c r="B68" s="178" t="s">
-        <v>399</v>
-      </c>
-      <c r="C68" s="184" t="s">
-        <v>400</v>
-      </c>
-      <c r="D68" s="123" t="s">
-        <v>401</v>
-      </c>
-      <c r="E68" s="79" t="s">
-        <v>402</v>
-      </c>
-      <c r="F68" s="79">
+      <c r="A68" s="175" t="s">
+        <v>451</v>
+      </c>
+      <c r="B68" s="176" t="s">
+        <v>452</v>
+      </c>
+      <c r="C68" s="180" t="s">
+        <v>453</v>
+      </c>
+      <c r="D68" s="122" t="s">
+        <v>454</v>
+      </c>
+      <c r="E68" s="78" t="s">
+        <v>455</v>
+      </c>
+      <c r="F68" s="78">
         <v>75.0</v>
       </c>
       <c r="G68" s="23" t="s">
@@ -9323,41 +9485,41 @@
       <c r="J68" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K68" s="120"/>
-      <c r="L68" s="74" t="s">
+      <c r="K68" s="119"/>
+      <c r="L68" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M68" s="74" t="s">
+      <c r="M68" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N68" s="75" t="s">
-        <v>239</v>
+      <c r="N68" s="74" t="s">
+        <v>266</v>
       </c>
       <c r="O68" s="67" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="P68" s="76" t="s">
-        <v>240</v>
+      <c r="P68" s="75" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="69" ht="51.75" customHeight="1">
-      <c r="A69" s="180" t="s">
-        <v>52</v>
-      </c>
-      <c r="B69" s="185" t="s">
-        <v>403</v>
-      </c>
-      <c r="C69" s="179" t="s">
-        <v>404</v>
-      </c>
-      <c r="D69" s="123" t="s">
-        <v>405</v>
-      </c>
-      <c r="E69" s="79" t="s">
-        <v>406</v>
-      </c>
-      <c r="F69" s="79">
+      <c r="A69" s="175" t="s">
+        <v>456</v>
+      </c>
+      <c r="B69" s="181" t="s">
+        <v>457</v>
+      </c>
+      <c r="C69" s="177" t="s">
+        <v>458</v>
+      </c>
+      <c r="D69" s="122" t="s">
+        <v>459</v>
+      </c>
+      <c r="E69" s="78" t="s">
+        <v>460</v>
+      </c>
+      <c r="F69" s="78">
         <v>100.0</v>
       </c>
       <c r="G69" s="23" t="s">
@@ -9372,43 +9534,43 @@
       <c r="J69" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K69" s="73" t="s">
-        <v>407</v>
-      </c>
-      <c r="L69" s="74" t="s">
+      <c r="K69" s="72" t="s">
+        <v>461</v>
+      </c>
+      <c r="L69" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M69" s="74" t="s">
+      <c r="M69" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N69" s="75" t="s">
-        <v>408</v>
+      <c r="N69" s="74" t="s">
+        <v>462</v>
       </c>
       <c r="O69" s="67" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="P69" s="76" t="s">
-        <v>409</v>
+      <c r="P69" s="75" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="70" ht="60.75" customHeight="1">
-      <c r="A70" s="183" t="s">
-        <v>52</v>
-      </c>
-      <c r="B70" s="185" t="s">
-        <v>410</v>
-      </c>
-      <c r="C70" s="186" t="s">
-        <v>411</v>
-      </c>
-      <c r="D70" s="123" t="s">
-        <v>412</v>
-      </c>
-      <c r="E70" s="79" t="s">
-        <v>413</v>
-      </c>
-      <c r="F70" s="79">
+      <c r="A70" s="175" t="s">
+        <v>464</v>
+      </c>
+      <c r="B70" s="181" t="s">
+        <v>465</v>
+      </c>
+      <c r="C70" s="182" t="s">
+        <v>466</v>
+      </c>
+      <c r="D70" s="122" t="s">
+        <v>467</v>
+      </c>
+      <c r="E70" s="78" t="s">
+        <v>468</v>
+      </c>
+      <c r="F70" s="78">
         <v>100.0</v>
       </c>
       <c r="G70" s="23" t="s">
@@ -9423,43 +9585,43 @@
       <c r="J70" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K70" s="73" t="s">
-        <v>414</v>
-      </c>
-      <c r="L70" s="74" t="s">
+      <c r="K70" s="72" t="s">
+        <v>469</v>
+      </c>
+      <c r="L70" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M70" s="74" t="s">
+      <c r="M70" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N70" s="75" t="s">
-        <v>415</v>
+      <c r="N70" s="74" t="s">
+        <v>470</v>
       </c>
       <c r="O70" s="67" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="P70" s="130" t="s">
-        <v>416</v>
+      <c r="P70" s="128" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="71" ht="49.5" customHeight="1">
-      <c r="A71" s="183" t="s">
-        <v>52</v>
-      </c>
-      <c r="B71" s="178" t="s">
-        <v>417</v>
-      </c>
-      <c r="C71" s="186" t="s">
-        <v>411</v>
-      </c>
-      <c r="D71" s="137" t="s">
-        <v>418</v>
-      </c>
-      <c r="E71" s="79" t="s">
-        <v>419</v>
-      </c>
-      <c r="F71" s="79">
+      <c r="A71" s="175" t="s">
+        <v>472</v>
+      </c>
+      <c r="B71" s="176" t="s">
+        <v>473</v>
+      </c>
+      <c r="C71" s="182" t="s">
+        <v>466</v>
+      </c>
+      <c r="D71" s="134" t="s">
+        <v>474</v>
+      </c>
+      <c r="E71" s="78" t="s">
+        <v>475</v>
+      </c>
+      <c r="F71" s="78">
         <v>100.0</v>
       </c>
       <c r="G71" s="23" t="s">
@@ -9474,43 +9636,43 @@
       <c r="J71" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K71" s="73" t="s">
-        <v>420</v>
-      </c>
-      <c r="L71" s="74" t="s">
+      <c r="K71" s="72" t="s">
+        <v>476</v>
+      </c>
+      <c r="L71" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M71" s="74" t="s">
+      <c r="M71" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N71" s="75" t="s">
-        <v>408</v>
+      <c r="N71" s="74" t="s">
+        <v>462</v>
       </c>
       <c r="O71" s="67" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="P71" s="76" t="s">
-        <v>409</v>
+      <c r="P71" s="75" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="72" ht="48.0" customHeight="1">
-      <c r="A72" s="180" t="s">
-        <v>52</v>
-      </c>
-      <c r="B72" s="178" t="s">
-        <v>421</v>
-      </c>
-      <c r="C72" s="186" t="s">
-        <v>411</v>
-      </c>
-      <c r="D72" s="137" t="s">
-        <v>418</v>
-      </c>
-      <c r="E72" s="79" t="s">
-        <v>422</v>
-      </c>
-      <c r="F72" s="79">
+      <c r="A72" s="175" t="s">
+        <v>477</v>
+      </c>
+      <c r="B72" s="176" t="s">
+        <v>478</v>
+      </c>
+      <c r="C72" s="182" t="s">
+        <v>466</v>
+      </c>
+      <c r="D72" s="134" t="s">
+        <v>474</v>
+      </c>
+      <c r="E72" s="78" t="s">
+        <v>479</v>
+      </c>
+      <c r="F72" s="78">
         <v>100.0</v>
       </c>
       <c r="G72" s="23" t="s">
@@ -9525,43 +9687,43 @@
       <c r="J72" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K72" s="73" t="s">
-        <v>420</v>
-      </c>
-      <c r="L72" s="74" t="s">
+      <c r="K72" s="72" t="s">
+        <v>476</v>
+      </c>
+      <c r="L72" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M72" s="74" t="s">
+      <c r="M72" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N72" s="75" t="s">
-        <v>408</v>
+      <c r="N72" s="74" t="s">
+        <v>462</v>
       </c>
       <c r="O72" s="67" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="P72" s="76" t="s">
-        <v>423</v>
+      <c r="P72" s="75" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="73" ht="48.0" customHeight="1">
-      <c r="A73" s="180" t="s">
-        <v>52</v>
-      </c>
-      <c r="B73" s="178" t="s">
-        <v>424</v>
-      </c>
-      <c r="C73" s="179" t="s">
-        <v>425</v>
-      </c>
-      <c r="D73" s="137" t="s">
-        <v>418</v>
-      </c>
-      <c r="E73" s="79" t="s">
-        <v>426</v>
-      </c>
-      <c r="F73" s="79">
+      <c r="A73" s="175" t="s">
+        <v>481</v>
+      </c>
+      <c r="B73" s="176" t="s">
+        <v>482</v>
+      </c>
+      <c r="C73" s="177" t="s">
+        <v>483</v>
+      </c>
+      <c r="D73" s="134" t="s">
+        <v>474</v>
+      </c>
+      <c r="E73" s="78" t="s">
+        <v>484</v>
+      </c>
+      <c r="F73" s="78">
         <v>100.0</v>
       </c>
       <c r="G73" s="23" t="s">
@@ -9576,43 +9738,43 @@
       <c r="J73" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K73" s="73" t="s">
-        <v>420</v>
-      </c>
-      <c r="L73" s="74" t="s">
+      <c r="K73" s="72" t="s">
+        <v>476</v>
+      </c>
+      <c r="L73" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M73" s="74" t="s">
+      <c r="M73" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N73" s="75" t="s">
-        <v>408</v>
+      <c r="N73" s="74" t="s">
+        <v>462</v>
       </c>
       <c r="O73" s="67" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="P73" s="76" t="s">
-        <v>409</v>
+      <c r="P73" s="75" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="74" ht="50.25" customHeight="1">
-      <c r="A74" s="180" t="s">
-        <v>52</v>
-      </c>
-      <c r="B74" s="187" t="s">
-        <v>427</v>
-      </c>
-      <c r="C74" s="186" t="s">
-        <v>425</v>
-      </c>
-      <c r="D74" s="137" t="s">
-        <v>428</v>
-      </c>
-      <c r="E74" s="79" t="s">
-        <v>429</v>
-      </c>
-      <c r="F74" s="79">
+      <c r="A74" s="175" t="s">
+        <v>485</v>
+      </c>
+      <c r="B74" s="183" t="s">
+        <v>486</v>
+      </c>
+      <c r="C74" s="182" t="s">
+        <v>483</v>
+      </c>
+      <c r="D74" s="134" t="s">
+        <v>487</v>
+      </c>
+      <c r="E74" s="78" t="s">
+        <v>488</v>
+      </c>
+      <c r="F74" s="78">
         <v>100.0</v>
       </c>
       <c r="G74" s="23" t="s">
@@ -9627,41 +9789,41 @@
       <c r="J74" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K74" s="73" t="s">
-        <v>420</v>
-      </c>
-      <c r="L74" s="74" t="s">
+      <c r="K74" s="72" t="s">
+        <v>476</v>
+      </c>
+      <c r="L74" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M74" s="74" t="s">
+      <c r="M74" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N74" s="75" t="s">
-        <v>408</v>
+      <c r="N74" s="74" t="s">
+        <v>462</v>
       </c>
       <c r="O74" s="67" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="P74" s="76" t="s">
-        <v>409</v>
+      <c r="P74" s="75" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="75" ht="49.5" customHeight="1">
-      <c r="A75" s="183" t="s">
-        <v>52</v>
-      </c>
-      <c r="B75" s="187" t="s">
-        <v>430</v>
-      </c>
-      <c r="C75" s="188">
+      <c r="A75" s="175" t="s">
+        <v>489</v>
+      </c>
+      <c r="B75" s="183" t="s">
+        <v>490</v>
+      </c>
+      <c r="C75" s="184">
         <v>1.0</v>
       </c>
-      <c r="D75" s="71" t="s">
-        <v>431</v>
-      </c>
-      <c r="E75" s="79"/>
-      <c r="F75" s="79">
+      <c r="D75" s="70" t="s">
+        <v>491</v>
+      </c>
+      <c r="E75" s="78"/>
+      <c r="F75" s="78">
         <v>100.0</v>
       </c>
       <c r="G75" s="23" t="s">
@@ -9676,43 +9838,43 @@
       <c r="J75" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K75" s="120" t="s">
-        <v>238</v>
-      </c>
-      <c r="L75" s="74" t="s">
+      <c r="K75" s="119" t="s">
+        <v>265</v>
+      </c>
+      <c r="L75" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M75" s="74" t="s">
+      <c r="M75" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N75" s="75" t="s">
-        <v>432</v>
+      <c r="N75" s="74" t="s">
+        <v>492</v>
       </c>
       <c r="O75" s="67" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="P75" s="76" t="s">
-        <v>433</v>
+      <c r="P75" s="75" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="76" ht="49.5" customHeight="1">
-      <c r="A76" s="183" t="s">
-        <v>52</v>
-      </c>
-      <c r="B76" s="185" t="s">
-        <v>434</v>
-      </c>
-      <c r="C76" s="189">
+      <c r="A76" s="175" t="s">
+        <v>494</v>
+      </c>
+      <c r="B76" s="181" t="s">
+        <v>495</v>
+      </c>
+      <c r="C76" s="185">
         <v>0.3</v>
       </c>
-      <c r="D76" s="123" t="s">
-        <v>435</v>
-      </c>
-      <c r="E76" s="79" t="s">
-        <v>436</v>
-      </c>
-      <c r="F76" s="79">
+      <c r="D76" s="122" t="s">
+        <v>496</v>
+      </c>
+      <c r="E76" s="78" t="s">
+        <v>497</v>
+      </c>
+      <c r="F76" s="78">
         <v>50.0</v>
       </c>
       <c r="G76" s="23" t="s">
@@ -9727,44 +9889,44 @@
       <c r="J76" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K76" s="73" t="s">
-        <v>292</v>
-      </c>
-      <c r="L76" s="74" t="s">
-        <v>258</v>
-      </c>
-      <c r="M76" s="74" t="s">
+      <c r="K76" s="72" t="s">
+        <v>328</v>
+      </c>
+      <c r="L76" s="73" t="s">
+        <v>288</v>
+      </c>
+      <c r="M76" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N76" s="75" t="s">
-        <v>437</v>
+      <c r="N76" s="74" t="s">
+        <v>498</v>
       </c>
       <c r="O76" s="67" t="str">
         <f>IMAGE("https://i.imgur.com/PNbQx4N.png", 4, 62, 62)
 </f>
         <v/>
       </c>
-      <c r="P76" s="130" t="s">
-        <v>438</v>
+      <c r="P76" s="128" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="77" ht="75.0" customHeight="1">
-      <c r="A77" s="183" t="s">
-        <v>52</v>
-      </c>
-      <c r="B77" s="178" t="s">
-        <v>439</v>
-      </c>
-      <c r="C77" s="189">
+      <c r="A77" s="175" t="s">
+        <v>500</v>
+      </c>
+      <c r="B77" s="176" t="s">
+        <v>501</v>
+      </c>
+      <c r="C77" s="185">
         <v>0.3</v>
       </c>
-      <c r="D77" s="137" t="s">
-        <v>440</v>
-      </c>
-      <c r="E77" s="79" t="s">
-        <v>441</v>
-      </c>
-      <c r="F77" s="79">
+      <c r="D77" s="134" t="s">
+        <v>502</v>
+      </c>
+      <c r="E77" s="78" t="s">
+        <v>503</v>
+      </c>
+      <c r="F77" s="78">
         <v>75.0</v>
       </c>
       <c r="G77" s="23" t="s">
@@ -9779,42 +9941,42 @@
       <c r="J77" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K77" s="120"/>
-      <c r="L77" s="74" t="s">
+      <c r="K77" s="119"/>
+      <c r="L77" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M77" s="74" t="s">
+      <c r="M77" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N77" s="75" t="s">
-        <v>239</v>
+      <c r="N77" s="74" t="s">
+        <v>266</v>
       </c>
       <c r="O77" s="67" t="str">
         <f t="shared" ref="O77:O84" si="14">IMAGE("https://i.imgur.com/gys4itG.png", 4, 62, 62)
 </f>
         <v/>
       </c>
-      <c r="P77" s="76" t="s">
-        <v>442</v>
+      <c r="P77" s="75" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="78" ht="59.25" customHeight="1">
-      <c r="A78" s="183" t="s">
-        <v>52</v>
-      </c>
-      <c r="B78" s="185" t="s">
-        <v>443</v>
-      </c>
-      <c r="C78" s="189">
+      <c r="A78" s="175" t="s">
+        <v>505</v>
+      </c>
+      <c r="B78" s="181" t="s">
+        <v>506</v>
+      </c>
+      <c r="C78" s="185">
         <v>0.3</v>
       </c>
-      <c r="D78" s="137" t="s">
-        <v>440</v>
-      </c>
-      <c r="E78" s="72" t="s">
-        <v>444</v>
-      </c>
-      <c r="F78" s="79">
+      <c r="D78" s="134" t="s">
+        <v>502</v>
+      </c>
+      <c r="E78" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="F78" s="78">
         <v>50.0</v>
       </c>
       <c r="G78" s="23" t="s">
@@ -9829,43 +9991,43 @@
       <c r="J78" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K78" s="73" t="s">
-        <v>445</v>
-      </c>
-      <c r="L78" s="74" t="s">
+      <c r="K78" s="72" t="s">
+        <v>508</v>
+      </c>
+      <c r="L78" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M78" s="74" t="s">
+      <c r="M78" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N78" s="75" t="s">
-        <v>239</v>
+      <c r="N78" s="74" t="s">
+        <v>266</v>
       </c>
       <c r="O78" s="67" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P78" s="76" t="s">
-        <v>240</v>
+      <c r="P78" s="75" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="79" ht="61.5" customHeight="1">
-      <c r="A79" s="183" t="s">
-        <v>52</v>
-      </c>
-      <c r="B79" s="178" t="s">
-        <v>446</v>
-      </c>
-      <c r="C79" s="189">
+      <c r="A79" s="175" t="s">
+        <v>509</v>
+      </c>
+      <c r="B79" s="176" t="s">
+        <v>510</v>
+      </c>
+      <c r="C79" s="185">
         <v>0.3</v>
       </c>
-      <c r="D79" s="137" t="s">
-        <v>440</v>
-      </c>
-      <c r="E79" s="72" t="s">
-        <v>447</v>
-      </c>
-      <c r="F79" s="79">
+      <c r="D79" s="134" t="s">
+        <v>502</v>
+      </c>
+      <c r="E79" s="71" t="s">
+        <v>511</v>
+      </c>
+      <c r="F79" s="78">
         <v>75.0</v>
       </c>
       <c r="G79" s="23" t="s">
@@ -9880,41 +10042,41 @@
       <c r="J79" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K79" s="73" t="s">
-        <v>238</v>
-      </c>
-      <c r="L79" s="74" t="s">
+      <c r="K79" s="72" t="s">
+        <v>265</v>
+      </c>
+      <c r="L79" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M79" s="74" t="s">
+      <c r="M79" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N79" s="75" t="s">
-        <v>239</v>
+      <c r="N79" s="74" t="s">
+        <v>266</v>
       </c>
       <c r="O79" s="67" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P79" s="76" t="s">
-        <v>240</v>
+      <c r="P79" s="75" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="80" ht="75.0" customHeight="1">
-      <c r="A80" s="183" t="s">
-        <v>52</v>
-      </c>
-      <c r="B80" s="185" t="s">
-        <v>448</v>
-      </c>
-      <c r="C80" s="189">
+      <c r="A80" s="175" t="s">
+        <v>512</v>
+      </c>
+      <c r="B80" s="181" t="s">
+        <v>513</v>
+      </c>
+      <c r="C80" s="185">
         <v>0.3</v>
       </c>
-      <c r="D80" s="137"/>
-      <c r="E80" s="79" t="s">
-        <v>449</v>
-      </c>
-      <c r="F80" s="79">
+      <c r="D80" s="134"/>
+      <c r="E80" s="78" t="s">
+        <v>514</v>
+      </c>
+      <c r="F80" s="78">
         <v>75.0</v>
       </c>
       <c r="G80" s="23" t="s">
@@ -9929,41 +10091,41 @@
       <c r="J80" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K80" s="73" t="s">
-        <v>238</v>
-      </c>
-      <c r="L80" s="74" t="s">
+      <c r="K80" s="72" t="s">
+        <v>265</v>
+      </c>
+      <c r="L80" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M80" s="74" t="s">
+      <c r="M80" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N80" s="75" t="s">
-        <v>239</v>
+      <c r="N80" s="74" t="s">
+        <v>266</v>
       </c>
       <c r="O80" s="67" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P80" s="76" t="s">
-        <v>450</v>
+      <c r="P80" s="75" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="81" ht="50.25" customHeight="1">
-      <c r="A81" s="183" t="s">
-        <v>52</v>
-      </c>
-      <c r="B81" s="185" t="s">
-        <v>451</v>
-      </c>
-      <c r="C81" s="190" t="s">
-        <v>452</v>
-      </c>
-      <c r="D81" s="123"/>
-      <c r="E81" s="79" t="s">
-        <v>453</v>
-      </c>
-      <c r="F81" s="79">
+      <c r="A81" s="175" t="s">
+        <v>516</v>
+      </c>
+      <c r="B81" s="181" t="s">
+        <v>517</v>
+      </c>
+      <c r="C81" s="186" t="s">
+        <v>518</v>
+      </c>
+      <c r="D81" s="122"/>
+      <c r="E81" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="F81" s="78">
         <v>100.0</v>
       </c>
       <c r="G81" s="23" t="s">
@@ -9978,37 +10140,37 @@
       <c r="J81" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K81" s="120"/>
-      <c r="L81" s="74" t="s">
+      <c r="K81" s="119"/>
+      <c r="L81" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M81" s="74" t="s">
+      <c r="M81" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N81" s="75" t="s">
-        <v>454</v>
+      <c r="N81" s="74" t="s">
+        <v>520</v>
       </c>
       <c r="O81" s="67" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P81" s="76" t="s">
-        <v>455</v>
+      <c r="P81" s="75" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="82" ht="51.75" customHeight="1">
-      <c r="A82" s="191" t="s">
-        <v>52</v>
-      </c>
-      <c r="B82" s="192" t="s">
-        <v>456</v>
-      </c>
-      <c r="C82" s="190" t="s">
-        <v>457</v>
-      </c>
-      <c r="D82" s="123"/>
-      <c r="E82" s="79"/>
-      <c r="F82" s="79">
+      <c r="A82" s="175" t="s">
+        <v>522</v>
+      </c>
+      <c r="B82" s="187" t="s">
+        <v>523</v>
+      </c>
+      <c r="C82" s="186" t="s">
+        <v>524</v>
+      </c>
+      <c r="D82" s="122"/>
+      <c r="E82" s="78"/>
+      <c r="F82" s="78">
         <v>100.0</v>
       </c>
       <c r="G82" s="23" t="s">
@@ -10023,43 +10185,43 @@
       <c r="J82" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K82" s="73" t="s">
-        <v>458</v>
-      </c>
-      <c r="L82" s="74" t="s">
+      <c r="K82" s="72" t="s">
+        <v>525</v>
+      </c>
+      <c r="L82" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M82" s="74" t="s">
+      <c r="M82" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N82" s="75" t="s">
-        <v>456</v>
+      <c r="N82" s="74" t="s">
+        <v>523</v>
       </c>
       <c r="O82" s="67" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P82" s="76" t="s">
-        <v>459</v>
+      <c r="P82" s="75" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="83" ht="60.75" customHeight="1">
-      <c r="A83" s="183" t="s">
-        <v>52</v>
-      </c>
-      <c r="B83" s="178" t="s">
-        <v>460</v>
-      </c>
-      <c r="C83" s="189">
+      <c r="A83" s="175" t="s">
+        <v>527</v>
+      </c>
+      <c r="B83" s="176" t="s">
+        <v>528</v>
+      </c>
+      <c r="C83" s="185">
         <v>0.2</v>
       </c>
-      <c r="D83" s="71" t="s">
-        <v>461</v>
-      </c>
-      <c r="E83" s="79" t="s">
-        <v>462</v>
-      </c>
-      <c r="F83" s="79">
+      <c r="D83" s="70" t="s">
+        <v>529</v>
+      </c>
+      <c r="E83" s="78" t="s">
+        <v>530</v>
+      </c>
+      <c r="F83" s="78">
         <v>100.0</v>
       </c>
       <c r="G83" s="23" t="s">
@@ -10074,43 +10236,43 @@
       <c r="J83" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K83" s="73" t="s">
-        <v>238</v>
-      </c>
-      <c r="L83" s="74" t="s">
+      <c r="K83" s="72" t="s">
+        <v>265</v>
+      </c>
+      <c r="L83" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M83" s="74" t="s">
+      <c r="M83" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N83" s="75" t="s">
-        <v>460</v>
+      <c r="N83" s="74" t="s">
+        <v>528</v>
       </c>
       <c r="O83" s="67" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P83" s="76" t="s">
-        <v>463</v>
+      <c r="P83" s="75" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="84" ht="51.0" customHeight="1">
-      <c r="A84" s="183" t="s">
-        <v>52</v>
-      </c>
-      <c r="B84" s="185" t="s">
-        <v>464</v>
-      </c>
-      <c r="C84" s="193" t="s">
-        <v>465</v>
-      </c>
-      <c r="D84" s="71" t="s">
-        <v>466</v>
-      </c>
-      <c r="E84" s="79" t="s">
-        <v>467</v>
-      </c>
-      <c r="F84" s="79">
+      <c r="A84" s="175" t="s">
+        <v>532</v>
+      </c>
+      <c r="B84" s="181" t="s">
+        <v>533</v>
+      </c>
+      <c r="C84" s="188" t="s">
+        <v>534</v>
+      </c>
+      <c r="D84" s="70" t="s">
+        <v>535</v>
+      </c>
+      <c r="E84" s="78" t="s">
+        <v>536</v>
+      </c>
+      <c r="F84" s="78">
         <v>100.0</v>
       </c>
       <c r="G84" s="23" t="s">
@@ -10125,39 +10287,39 @@
       <c r="J84" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K84" s="73" t="s">
-        <v>468</v>
-      </c>
-      <c r="L84" s="194" t="s">
-        <v>469</v>
-      </c>
-      <c r="M84" s="74" t="s">
+      <c r="K84" s="72" t="s">
+        <v>537</v>
+      </c>
+      <c r="L84" s="189" t="s">
+        <v>538</v>
+      </c>
+      <c r="M84" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N84" s="75" t="s">
-        <v>470</v>
+      <c r="N84" s="74" t="s">
+        <v>539</v>
       </c>
       <c r="O84" s="67" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P84" s="76" t="s">
-        <v>409</v>
+      <c r="P84" s="75" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="85" ht="48.75" customHeight="1">
-      <c r="A85" s="183" t="s">
-        <v>52</v>
-      </c>
-      <c r="B85" s="178" t="s">
-        <v>471</v>
-      </c>
-      <c r="C85" s="189">
+      <c r="A85" s="175" t="s">
+        <v>540</v>
+      </c>
+      <c r="B85" s="176" t="s">
+        <v>541</v>
+      </c>
+      <c r="C85" s="185">
         <v>0.2</v>
       </c>
-      <c r="D85" s="137"/>
-      <c r="E85" s="79"/>
-      <c r="F85" s="79">
+      <c r="D85" s="134"/>
+      <c r="E85" s="78"/>
+      <c r="F85" s="78">
         <v>100.0</v>
       </c>
       <c r="G85" s="23" t="s">
@@ -10172,44 +10334,44 @@
       <c r="J85" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K85" s="73" t="s">
-        <v>238</v>
-      </c>
-      <c r="L85" s="74" t="s">
+      <c r="K85" s="72" t="s">
+        <v>265</v>
+      </c>
+      <c r="L85" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M85" s="74" t="s">
+      <c r="M85" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N85" s="75" t="s">
-        <v>472</v>
+      <c r="N85" s="74" t="s">
+        <v>542</v>
       </c>
       <c r="O85" s="67" t="str">
         <f>IMAGE("https://i.imgur.com/PNbQx4N.png", 4, 62, 62)
 </f>
         <v/>
       </c>
-      <c r="P85" s="130" t="s">
-        <v>473</v>
+      <c r="P85" s="128" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="86" ht="138.0" customHeight="1">
-      <c r="A86" s="183" t="s">
-        <v>52</v>
-      </c>
-      <c r="B86" s="185" t="s">
-        <v>474</v>
-      </c>
-      <c r="C86" s="195" t="s">
-        <v>475</v>
-      </c>
-      <c r="D86" s="196" t="s">
-        <v>476</v>
-      </c>
-      <c r="E86" s="79" t="s">
-        <v>175</v>
-      </c>
-      <c r="F86" s="79">
+      <c r="A86" s="175" t="s">
+        <v>544</v>
+      </c>
+      <c r="B86" s="181" t="s">
+        <v>545</v>
+      </c>
+      <c r="C86" s="190" t="s">
+        <v>546</v>
+      </c>
+      <c r="D86" s="191" t="s">
+        <v>547</v>
+      </c>
+      <c r="E86" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="F86" s="78">
         <v>100.0</v>
       </c>
       <c r="G86" s="23" t="s">
@@ -10224,44 +10386,44 @@
       <c r="J86" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K86" s="73" t="s">
-        <v>238</v>
-      </c>
-      <c r="L86" s="74" t="s">
+      <c r="K86" s="72" t="s">
+        <v>265</v>
+      </c>
+      <c r="L86" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M86" s="74" t="s">
+      <c r="M86" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N86" s="197" t="s">
-        <v>477</v>
+      <c r="N86" s="192" t="s">
+        <v>548</v>
       </c>
       <c r="O86" s="67" t="str">
         <f t="shared" ref="O86:O87" si="15">IMAGE("https://i.imgur.com/gys4itG.png", 4, 62, 62)
 </f>
         <v/>
       </c>
-      <c r="P86" s="130" t="s">
-        <v>478</v>
+      <c r="P86" s="128" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="87" ht="50.25" customHeight="1">
-      <c r="A87" s="183" t="s">
-        <v>52</v>
-      </c>
-      <c r="B87" s="185" t="s">
-        <v>479</v>
-      </c>
-      <c r="C87" s="190" t="s">
-        <v>480</v>
-      </c>
-      <c r="D87" s="123" t="s">
-        <v>481</v>
-      </c>
-      <c r="E87" s="79" t="s">
-        <v>482</v>
-      </c>
-      <c r="F87" s="79">
+      <c r="A87" s="175" t="s">
+        <v>550</v>
+      </c>
+      <c r="B87" s="181" t="s">
+        <v>551</v>
+      </c>
+      <c r="C87" s="186" t="s">
+        <v>552</v>
+      </c>
+      <c r="D87" s="122" t="s">
+        <v>553</v>
+      </c>
+      <c r="E87" s="78" t="s">
+        <v>554</v>
+      </c>
+      <c r="F87" s="78">
         <v>100.0</v>
       </c>
       <c r="G87" s="23" t="s">
@@ -10276,41 +10438,41 @@
       <c r="J87" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K87" s="73" t="s">
-        <v>169</v>
-      </c>
-      <c r="L87" s="74" t="s">
+      <c r="K87" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="L87" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M87" s="74" t="s">
+      <c r="M87" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N87" s="75" t="s">
-        <v>483</v>
+      <c r="N87" s="74" t="s">
+        <v>555</v>
       </c>
       <c r="O87" s="67" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="P87" s="130" t="s">
-        <v>484</v>
+      <c r="P87" s="128" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="88" ht="48.75" customHeight="1">
-      <c r="A88" s="183" t="s">
-        <v>52</v>
-      </c>
-      <c r="B88" s="185" t="s">
-        <v>485</v>
-      </c>
-      <c r="C88" s="198" t="s">
-        <v>486</v>
-      </c>
-      <c r="D88" s="71" t="s">
-        <v>487</v>
-      </c>
-      <c r="E88" s="79"/>
-      <c r="F88" s="79">
+      <c r="A88" s="175" t="s">
+        <v>557</v>
+      </c>
+      <c r="B88" s="181" t="s">
+        <v>558</v>
+      </c>
+      <c r="C88" s="193" t="s">
+        <v>559</v>
+      </c>
+      <c r="D88" s="70" t="s">
+        <v>560</v>
+      </c>
+      <c r="E88" s="78"/>
+      <c r="F88" s="78">
         <v>40.0</v>
       </c>
       <c r="G88" s="23" t="s">
@@ -10325,142 +10487,140 @@
       <c r="J88" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K88" s="73" t="s">
-        <v>488</v>
-      </c>
-      <c r="L88" s="74" t="s">
+      <c r="K88" s="72" t="s">
+        <v>561</v>
+      </c>
+      <c r="L88" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M88" s="74" t="s">
+      <c r="M88" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N88" s="75" t="s">
-        <v>489</v>
+      <c r="N88" s="74" t="s">
+        <v>562</v>
       </c>
       <c r="O88" s="67" t="str">
         <f>IMAGE("https://i.imgur.com/PNbQx4N.png", 4, 62, 62)
 </f>
         <v/>
       </c>
-      <c r="P88" s="76" t="s">
-        <v>490</v>
+      <c r="P88" s="75" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="89" ht="58.5" customHeight="1">
-      <c r="A89" s="199" t="s">
-        <v>52</v>
-      </c>
-      <c r="B89" s="200" t="s">
-        <v>491</v>
-      </c>
-      <c r="C89" s="201" t="s">
-        <v>492</v>
-      </c>
-      <c r="D89" s="202" t="s">
-        <v>493</v>
-      </c>
-      <c r="E89" s="143" t="s">
-        <v>494</v>
-      </c>
-      <c r="F89" s="143">
+      <c r="A89" s="194" t="s">
+        <v>564</v>
+      </c>
+      <c r="B89" s="195" t="s">
+        <v>565</v>
+      </c>
+      <c r="C89" s="196" t="s">
+        <v>566</v>
+      </c>
+      <c r="D89" s="197" t="s">
+        <v>567</v>
+      </c>
+      <c r="E89" s="140" t="s">
+        <v>568</v>
+      </c>
+      <c r="F89" s="140">
         <v>50.0</v>
       </c>
-      <c r="G89" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="H89" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="I89" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="J89" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="K89" s="203" t="s">
-        <v>495</v>
-      </c>
-      <c r="L89" s="145" t="s">
+      <c r="G89" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="H89" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="I89" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="J89" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="K89" s="198" t="s">
+        <v>569</v>
+      </c>
+      <c r="L89" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="M89" s="145" t="s">
+      <c r="M89" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="N89" s="146" t="s">
-        <v>347</v>
-      </c>
-      <c r="O89" s="90" t="str">
+      <c r="N89" s="143" t="s">
+        <v>389</v>
+      </c>
+      <c r="O89" s="89" t="str">
         <f>IMAGE("https://i.imgur.com/gys4itG.png", 4, 62, 62)
 </f>
         <v/>
       </c>
-      <c r="P89" s="170" t="s">
-        <v>496</v>
+      <c r="P89" s="168" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="92"/>
-      <c r="B90" s="148"/>
+      <c r="A90" s="91"/>
+      <c r="B90" s="145"/>
       <c r="C90" s="10"/>
-      <c r="D90" s="93"/>
+      <c r="D90" s="92"/>
       <c r="E90" s="10"/>
       <c r="F90" s="10"/>
-      <c r="G90" s="94"/>
+      <c r="G90" s="93"/>
       <c r="H90" s="10"/>
       <c r="I90" s="10"/>
       <c r="J90" s="10"/>
-      <c r="K90" s="95"/>
+      <c r="K90" s="94"/>
       <c r="L90" s="10"/>
       <c r="M90" s="10"/>
       <c r="N90" s="10"/>
       <c r="O90" s="10"/>
-      <c r="P90" s="96"/>
+      <c r="P90" s="95"/>
     </row>
     <row r="91">
-      <c r="A91" s="149"/>
-      <c r="B91" s="204" t="s">
-        <v>497</v>
-      </c>
-      <c r="C91" s="99"/>
-      <c r="D91" s="100"/>
-      <c r="E91" s="99"/>
-      <c r="F91" s="99"/>
-      <c r="G91" s="101" t="s">
-        <v>498</v>
-      </c>
-      <c r="H91" s="102" t="s">
-        <v>499</v>
-      </c>
-      <c r="I91" s="102" t="s">
-        <v>500</v>
-      </c>
-      <c r="J91" s="103" t="s">
+      <c r="A91" s="146"/>
+      <c r="B91" s="199" t="s">
+        <v>571</v>
+      </c>
+      <c r="C91" s="98"/>
+      <c r="D91" s="99"/>
+      <c r="E91" s="98"/>
+      <c r="F91" s="98"/>
+      <c r="G91" s="100" t="s">
+        <v>572</v>
+      </c>
+      <c r="H91" s="101" t="s">
+        <v>573</v>
+      </c>
+      <c r="I91" s="101" t="s">
+        <v>574</v>
+      </c>
+      <c r="J91" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="K91" s="104"/>
-      <c r="L91" s="99"/>
-      <c r="M91" s="99"/>
-      <c r="N91" s="99"/>
-      <c r="O91" s="99"/>
-      <c r="P91" s="105"/>
+      <c r="K91" s="103"/>
+      <c r="L91" s="98"/>
+      <c r="M91" s="98"/>
+      <c r="N91" s="98"/>
+      <c r="O91" s="98"/>
+      <c r="P91" s="104"/>
     </row>
     <row r="92" ht="83.25" customHeight="1">
-      <c r="A92" s="205" t="s">
-        <v>52</v>
-      </c>
-      <c r="B92" s="206" t="s">
-        <v>501</v>
+      <c r="A92" s="200"/>
+      <c r="B92" s="201" t="s">
+        <v>575</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>502</v>
-      </c>
-      <c r="D92" s="207" t="s">
-        <v>503</v>
-      </c>
-      <c r="E92" s="208" t="s">
-        <v>504</v>
-      </c>
-      <c r="F92" s="209">
+        <v>576</v>
+      </c>
+      <c r="D92" s="202" t="s">
+        <v>577</v>
+      </c>
+      <c r="E92" s="203" t="s">
+        <v>578</v>
+      </c>
+      <c r="F92" s="204">
         <v>100.0</v>
       </c>
       <c r="G92" s="23" t="s">
@@ -10475,42 +10635,40 @@
       <c r="J92" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K92" s="210" t="s">
-        <v>238</v>
-      </c>
-      <c r="L92" s="211" t="s">
+      <c r="K92" s="205" t="s">
+        <v>265</v>
+      </c>
+      <c r="L92" s="206" t="s">
         <v>32</v>
       </c>
-      <c r="M92" s="211" t="s">
+      <c r="M92" s="206" t="s">
         <v>33</v>
       </c>
-      <c r="N92" s="212" t="s">
-        <v>505</v>
-      </c>
-      <c r="O92" s="213" t="str">
+      <c r="N92" s="207" t="s">
+        <v>579</v>
+      </c>
+      <c r="O92" s="208" t="str">
         <f t="shared" ref="O92:O97" si="16">IMAGE("https://i.imgur.com/gys4itG.png", 4, 62, 62)
 </f>
         <v/>
       </c>
-      <c r="P92" s="214" t="s">
-        <v>506</v>
+      <c r="P92" s="209" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="93" ht="83.25" customHeight="1">
-      <c r="A93" s="47" t="s">
-        <v>52</v>
-      </c>
+      <c r="A93" s="210"/>
       <c r="B93" s="30" t="s">
-        <v>507</v>
+        <v>581</v>
       </c>
       <c r="C93" s="31" t="s">
-        <v>508</v>
-      </c>
-      <c r="D93" s="158" t="s">
-        <v>509</v>
+        <v>582</v>
+      </c>
+      <c r="D93" s="155" t="s">
+        <v>583</v>
       </c>
       <c r="E93" s="33" t="s">
-        <v>504</v>
+        <v>578</v>
       </c>
       <c r="F93" s="59">
         <v>100.0</v>
@@ -10528,7 +10686,7 @@
         <v>30</v>
       </c>
       <c r="K93" s="62" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="L93" s="35" t="s">
         <v>32</v>
@@ -10537,33 +10695,31 @@
         <v>33</v>
       </c>
       <c r="N93" s="36" t="s">
-        <v>505</v>
+        <v>579</v>
       </c>
       <c r="O93" s="37" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P93" s="38" t="s">
-        <v>510</v>
+        <v>584</v>
       </c>
     </row>
     <row r="94" ht="60.75" customHeight="1">
-      <c r="A94" s="121" t="s">
-        <v>52</v>
-      </c>
-      <c r="B94" s="117" t="s">
-        <v>511</v>
-      </c>
-      <c r="C94" s="118" t="s">
-        <v>512</v>
-      </c>
-      <c r="D94" s="71" t="s">
-        <v>513</v>
-      </c>
-      <c r="E94" s="79" t="s">
-        <v>514</v>
-      </c>
-      <c r="F94" s="79">
+      <c r="A94" s="211"/>
+      <c r="B94" s="116" t="s">
+        <v>585</v>
+      </c>
+      <c r="C94" s="117" t="s">
+        <v>586</v>
+      </c>
+      <c r="D94" s="70" t="s">
+        <v>587</v>
+      </c>
+      <c r="E94" s="78" t="s">
+        <v>588</v>
+      </c>
+      <c r="F94" s="78">
         <v>100.0</v>
       </c>
       <c r="G94" s="23" t="s">
@@ -10578,41 +10734,39 @@
       <c r="J94" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K94" s="120"/>
-      <c r="L94" s="74" t="s">
+      <c r="K94" s="119"/>
+      <c r="L94" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M94" s="74" t="s">
+      <c r="M94" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N94" s="75" t="s">
-        <v>515</v>
+      <c r="N94" s="74" t="s">
+        <v>589</v>
       </c>
       <c r="O94" s="67" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="P94" s="130" t="s">
-        <v>516</v>
+      <c r="P94" s="128" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="95" ht="105.75" customHeight="1">
-      <c r="A95" s="183" t="s">
-        <v>52</v>
-      </c>
-      <c r="B95" s="185" t="s">
-        <v>517</v>
-      </c>
-      <c r="C95" s="215" t="s">
-        <v>518</v>
-      </c>
-      <c r="D95" s="71" t="s">
-        <v>519</v>
-      </c>
-      <c r="E95" s="79" t="s">
-        <v>520</v>
-      </c>
-      <c r="F95" s="79">
+      <c r="A95" s="212"/>
+      <c r="B95" s="181" t="s">
+        <v>591</v>
+      </c>
+      <c r="C95" s="213" t="s">
+        <v>592</v>
+      </c>
+      <c r="D95" s="70" t="s">
+        <v>593</v>
+      </c>
+      <c r="E95" s="78" t="s">
+        <v>594</v>
+      </c>
+      <c r="F95" s="78">
         <v>100.0</v>
       </c>
       <c r="G95" s="23" t="s">
@@ -10627,43 +10781,41 @@
       <c r="J95" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K95" s="73" t="s">
-        <v>521</v>
-      </c>
-      <c r="L95" s="74" t="s">
-        <v>522</v>
-      </c>
-      <c r="M95" s="74" t="s">
+      <c r="K95" s="72" t="s">
+        <v>595</v>
+      </c>
+      <c r="L95" s="73" t="s">
+        <v>596</v>
+      </c>
+      <c r="M95" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N95" s="75" t="s">
-        <v>523</v>
+      <c r="N95" s="74" t="s">
+        <v>597</v>
       </c>
       <c r="O95" s="67" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="P95" s="76" t="s">
-        <v>524</v>
+      <c r="P95" s="75" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="96" ht="97.5" customHeight="1">
-      <c r="A96" s="183" t="s">
-        <v>52</v>
-      </c>
-      <c r="B96" s="185" t="s">
-        <v>525</v>
-      </c>
-      <c r="C96" s="215" t="s">
-        <v>526</v>
-      </c>
-      <c r="D96" s="71" t="s">
-        <v>527</v>
-      </c>
-      <c r="E96" s="79" t="s">
-        <v>528</v>
-      </c>
-      <c r="F96" s="79">
+      <c r="A96" s="212"/>
+      <c r="B96" s="181" t="s">
+        <v>599</v>
+      </c>
+      <c r="C96" s="213" t="s">
+        <v>600</v>
+      </c>
+      <c r="D96" s="70" t="s">
+        <v>601</v>
+      </c>
+      <c r="E96" s="78" t="s">
+        <v>602</v>
+      </c>
+      <c r="F96" s="78">
         <v>100.0</v>
       </c>
       <c r="G96" s="23" t="s">
@@ -10678,39 +10830,39 @@
       <c r="J96" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K96" s="73" t="s">
-        <v>238</v>
-      </c>
-      <c r="L96" s="74" t="s">
+      <c r="K96" s="72" t="s">
+        <v>265</v>
+      </c>
+      <c r="L96" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M96" s="74" t="s">
+      <c r="M96" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N96" s="75" t="s">
-        <v>505</v>
+      <c r="N96" s="74" t="s">
+        <v>579</v>
       </c>
       <c r="O96" s="67" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="P96" s="76" t="s">
-        <v>529</v>
+      <c r="P96" s="75" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="97" ht="60.75" customHeight="1">
-      <c r="A97" s="216"/>
-      <c r="B97" s="217" t="s">
-        <v>530</v>
-      </c>
-      <c r="C97" s="218"/>
-      <c r="D97" s="71" t="s">
-        <v>531</v>
-      </c>
-      <c r="E97" s="79" t="s">
-        <v>532</v>
-      </c>
-      <c r="F97" s="79">
+      <c r="A97" s="214"/>
+      <c r="B97" s="215" t="s">
+        <v>604</v>
+      </c>
+      <c r="C97" s="216"/>
+      <c r="D97" s="70" t="s">
+        <v>605</v>
+      </c>
+      <c r="E97" s="78" t="s">
+        <v>606</v>
+      </c>
+      <c r="F97" s="78">
         <v>75.0</v>
       </c>
       <c r="G97" s="23" t="s">
@@ -10725,37 +10877,37 @@
       <c r="J97" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K97" s="120"/>
-      <c r="L97" s="74" t="s">
+      <c r="K97" s="119"/>
+      <c r="L97" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="M97" s="74" t="s">
+      <c r="M97" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N97" s="75" t="s">
-        <v>239</v>
+      <c r="N97" s="74" t="s">
+        <v>266</v>
       </c>
       <c r="O97" s="67" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="P97" s="76" t="s">
-        <v>533</v>
+      <c r="P97" s="75" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="98" ht="99.0" customHeight="1">
-      <c r="A98" s="216"/>
-      <c r="B98" s="219" t="s">
-        <v>534</v>
-      </c>
-      <c r="C98" s="220"/>
-      <c r="D98" s="71" t="s">
-        <v>535</v>
-      </c>
-      <c r="E98" s="72" t="s">
-        <v>536</v>
-      </c>
-      <c r="F98" s="79">
+      <c r="A98" s="214"/>
+      <c r="B98" s="217" t="s">
+        <v>608</v>
+      </c>
+      <c r="C98" s="218"/>
+      <c r="D98" s="70" t="s">
+        <v>609</v>
+      </c>
+      <c r="E98" s="71" t="s">
+        <v>610</v>
+      </c>
+      <c r="F98" s="78">
         <v>100.0</v>
       </c>
       <c r="G98" s="23" t="s">
@@ -10770,227 +10922,227 @@
       <c r="J98" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K98" s="120"/>
-      <c r="L98" s="74" t="s">
-        <v>537</v>
-      </c>
-      <c r="M98" s="74" t="s">
+      <c r="K98" s="119"/>
+      <c r="L98" s="73" t="s">
+        <v>611</v>
+      </c>
+      <c r="M98" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N98" s="75" t="s">
-        <v>538</v>
+      <c r="N98" s="74" t="s">
+        <v>612</v>
       </c>
       <c r="O98" s="67" t="str">
         <f t="shared" ref="O98:O99" si="17">IMAGE("https://i.imgur.com/PNbQx4N.png", 4, 62, 62)
 </f>
         <v/>
       </c>
-      <c r="P98" s="76" t="s">
-        <v>539</v>
+      <c r="P98" s="75" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="216"/>
-      <c r="B99" s="219" t="s">
-        <v>540</v>
-      </c>
-      <c r="C99" s="218"/>
-      <c r="D99" s="123" t="s">
-        <v>541</v>
-      </c>
-      <c r="E99" s="143"/>
-      <c r="F99" s="143">
+      <c r="A99" s="214"/>
+      <c r="B99" s="217" t="s">
+        <v>614</v>
+      </c>
+      <c r="C99" s="216"/>
+      <c r="D99" s="122" t="s">
+        <v>615</v>
+      </c>
+      <c r="E99" s="140"/>
+      <c r="F99" s="140">
         <v>100.0</v>
       </c>
-      <c r="G99" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="H99" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="I99" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="J99" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="K99" s="144"/>
-      <c r="L99" s="221" t="s">
-        <v>542</v>
-      </c>
-      <c r="M99" s="145" t="s">
+      <c r="G99" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="H99" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="I99" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="J99" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="K99" s="141"/>
+      <c r="L99" s="219" t="s">
+        <v>616</v>
+      </c>
+      <c r="M99" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="N99" s="146" t="s">
-        <v>543</v>
-      </c>
-      <c r="O99" s="90" t="str">
+      <c r="N99" s="143" t="s">
+        <v>617</v>
+      </c>
+      <c r="O99" s="89" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="P99" s="170" t="s">
-        <v>96</v>
+      <c r="P99" s="168" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="222"/>
-      <c r="B100" s="217" t="s">
-        <v>544</v>
-      </c>
-      <c r="C100" s="223"/>
-      <c r="D100" s="224" t="s">
-        <v>545</v>
+      <c r="A100" s="220"/>
+      <c r="B100" s="215" t="s">
+        <v>618</v>
+      </c>
+      <c r="C100" s="221"/>
+      <c r="D100" s="222" t="s">
+        <v>619</v>
       </c>
       <c r="E100" s="10"/>
       <c r="F100" s="10"/>
-      <c r="G100" s="225"/>
-      <c r="H100" s="95"/>
-      <c r="I100" s="95"/>
-      <c r="J100" s="95"/>
-      <c r="K100" s="95"/>
+      <c r="G100" s="223"/>
+      <c r="H100" s="94"/>
+      <c r="I100" s="94"/>
+      <c r="J100" s="94"/>
+      <c r="K100" s="94"/>
       <c r="L100" s="10"/>
       <c r="M100" s="10"/>
       <c r="N100" s="10"/>
       <c r="O100" s="10"/>
-      <c r="P100" s="96"/>
+      <c r="P100" s="95"/>
     </row>
     <row r="101">
-      <c r="A101" s="222"/>
-      <c r="B101" s="219" t="s">
-        <v>546</v>
-      </c>
-      <c r="C101" s="226"/>
-      <c r="D101" s="227" t="s">
-        <v>547</v>
-      </c>
-      <c r="E101" s="99"/>
-      <c r="F101" s="99"/>
-      <c r="G101" s="228"/>
-      <c r="H101" s="104"/>
-      <c r="I101" s="104"/>
-      <c r="J101" s="104"/>
-      <c r="K101" s="104"/>
-      <c r="L101" s="99"/>
-      <c r="M101" s="99"/>
-      <c r="N101" s="99"/>
-      <c r="O101" s="99"/>
-      <c r="P101" s="105"/>
+      <c r="A101" s="220"/>
+      <c r="B101" s="217" t="s">
+        <v>620</v>
+      </c>
+      <c r="C101" s="224"/>
+      <c r="D101" s="225" t="s">
+        <v>621</v>
+      </c>
+      <c r="E101" s="98"/>
+      <c r="F101" s="98"/>
+      <c r="G101" s="226"/>
+      <c r="H101" s="103"/>
+      <c r="I101" s="103"/>
+      <c r="J101" s="103"/>
+      <c r="K101" s="103"/>
+      <c r="L101" s="98"/>
+      <c r="M101" s="98"/>
+      <c r="N101" s="98"/>
+      <c r="O101" s="98"/>
+      <c r="P101" s="104"/>
     </row>
     <row r="102">
-      <c r="A102" s="222"/>
-      <c r="B102" s="219" t="s">
-        <v>548</v>
-      </c>
-      <c r="C102" s="223"/>
-      <c r="D102" s="224" t="s">
-        <v>549</v>
+      <c r="A102" s="220"/>
+      <c r="B102" s="217" t="s">
+        <v>622</v>
+      </c>
+      <c r="C102" s="221"/>
+      <c r="D102" s="222" t="s">
+        <v>623</v>
       </c>
       <c r="E102" s="10"/>
       <c r="F102" s="10"/>
-      <c r="G102" s="225"/>
-      <c r="H102" s="95"/>
-      <c r="I102" s="95"/>
-      <c r="J102" s="95"/>
-      <c r="K102" s="95"/>
+      <c r="G102" s="223"/>
+      <c r="H102" s="94"/>
+      <c r="I102" s="94"/>
+      <c r="J102" s="94"/>
+      <c r="K102" s="94"/>
       <c r="L102" s="10"/>
       <c r="M102" s="10"/>
       <c r="N102" s="10"/>
       <c r="O102" s="10"/>
-      <c r="P102" s="96"/>
+      <c r="P102" s="95"/>
     </row>
     <row r="103">
-      <c r="A103" s="222"/>
-      <c r="B103" s="219" t="s">
-        <v>550</v>
-      </c>
-      <c r="C103" s="226"/>
-      <c r="D103" s="224" t="s">
-        <v>551</v>
-      </c>
-      <c r="E103" s="99"/>
-      <c r="F103" s="99"/>
-      <c r="G103" s="228"/>
-      <c r="H103" s="104"/>
-      <c r="I103" s="104"/>
-      <c r="J103" s="104"/>
-      <c r="K103" s="104"/>
-      <c r="L103" s="99"/>
-      <c r="M103" s="99"/>
-      <c r="N103" s="99"/>
-      <c r="O103" s="99"/>
-      <c r="P103" s="105"/>
+      <c r="A103" s="220"/>
+      <c r="B103" s="217" t="s">
+        <v>624</v>
+      </c>
+      <c r="C103" s="224"/>
+      <c r="D103" s="222" t="s">
+        <v>625</v>
+      </c>
+      <c r="E103" s="98"/>
+      <c r="F103" s="98"/>
+      <c r="G103" s="226"/>
+      <c r="H103" s="103"/>
+      <c r="I103" s="103"/>
+      <c r="J103" s="103"/>
+      <c r="K103" s="103"/>
+      <c r="L103" s="98"/>
+      <c r="M103" s="98"/>
+      <c r="N103" s="98"/>
+      <c r="O103" s="98"/>
+      <c r="P103" s="104"/>
     </row>
     <row r="104">
-      <c r="A104" s="222"/>
-      <c r="B104" s="217" t="s">
-        <v>552</v>
-      </c>
-      <c r="C104" s="223"/>
-      <c r="D104" s="229" t="s">
-        <v>553</v>
+      <c r="A104" s="220"/>
+      <c r="B104" s="215" t="s">
+        <v>626</v>
+      </c>
+      <c r="C104" s="221"/>
+      <c r="D104" s="227" t="s">
+        <v>627</v>
       </c>
       <c r="E104" s="10"/>
       <c r="F104" s="10"/>
-      <c r="G104" s="225"/>
-      <c r="H104" s="95"/>
-      <c r="I104" s="95"/>
-      <c r="J104" s="95"/>
-      <c r="K104" s="95"/>
+      <c r="G104" s="223"/>
+      <c r="H104" s="94"/>
+      <c r="I104" s="94"/>
+      <c r="J104" s="94"/>
+      <c r="K104" s="94"/>
       <c r="L104" s="10"/>
       <c r="M104" s="10"/>
       <c r="N104" s="10"/>
       <c r="O104" s="10"/>
-      <c r="P104" s="96"/>
+      <c r="P104" s="95"/>
     </row>
     <row r="105">
-      <c r="A105" s="230"/>
-      <c r="B105" s="231" t="s">
-        <v>554</v>
-      </c>
-      <c r="C105" s="232"/>
-      <c r="D105" s="233"/>
-      <c r="E105" s="99"/>
-      <c r="F105" s="99"/>
-      <c r="G105" s="228"/>
-      <c r="H105" s="104"/>
-      <c r="I105" s="104"/>
-      <c r="J105" s="104"/>
-      <c r="K105" s="104"/>
-      <c r="L105" s="99"/>
-      <c r="M105" s="99"/>
-      <c r="N105" s="99"/>
-      <c r="O105" s="99"/>
-      <c r="P105" s="105"/>
+      <c r="A105" s="228"/>
+      <c r="B105" s="229" t="s">
+        <v>628</v>
+      </c>
+      <c r="C105" s="230"/>
+      <c r="D105" s="231"/>
+      <c r="E105" s="98"/>
+      <c r="F105" s="98"/>
+      <c r="G105" s="226"/>
+      <c r="H105" s="103"/>
+      <c r="I105" s="103"/>
+      <c r="J105" s="103"/>
+      <c r="K105" s="103"/>
+      <c r="L105" s="98"/>
+      <c r="M105" s="98"/>
+      <c r="N105" s="98"/>
+      <c r="O105" s="98"/>
+      <c r="P105" s="104"/>
     </row>
     <row r="106" hidden="1">
-      <c r="C106" s="234"/>
-      <c r="E106" s="234"/>
-      <c r="F106" s="234"/>
-      <c r="G106" s="235"/>
-      <c r="L106" s="234"/>
-      <c r="M106" s="234"/>
-      <c r="N106" s="234"/>
-      <c r="O106" s="234"/>
+      <c r="C106" s="232"/>
+      <c r="E106" s="232"/>
+      <c r="F106" s="232"/>
+      <c r="G106" s="233"/>
+      <c r="L106" s="232"/>
+      <c r="M106" s="232"/>
+      <c r="N106" s="232"/>
+      <c r="O106" s="232"/>
     </row>
     <row r="107" hidden="1">
-      <c r="C107" s="236"/>
-      <c r="E107" s="236"/>
-      <c r="F107" s="236"/>
-      <c r="G107" s="237"/>
-      <c r="L107" s="236"/>
-      <c r="M107" s="236"/>
-      <c r="N107" s="236"/>
-      <c r="O107" s="236"/>
+      <c r="C107" s="234"/>
+      <c r="E107" s="234"/>
+      <c r="F107" s="234"/>
+      <c r="G107" s="235"/>
+      <c r="L107" s="234"/>
+      <c r="M107" s="234"/>
+      <c r="N107" s="234"/>
+      <c r="O107" s="234"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{E2A9CBD4-2B0B-4D8B-952A-03C08A8C23B7}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{D687EDED-EDFD-45DE-A550-031CC1E78917}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$P$107"/>
     </customSheetView>
-    <customSheetView guid="{1591541E-372F-4A14-A7E6-61F0244696D4}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{43ADF0D4-87FA-4668-8529-F4D208F7509F}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$P$107"/>
     </customSheetView>
-    <customSheetView guid="{9C3B6DF3-B530-4DA4-A1A6-D60CE7BFB4CF}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{71F547FD-0F4E-4EF9-9A25-919E00083B51}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$P$107"/>
     </customSheetView>
   </customSheetViews>
@@ -11142,136 +11294,129 @@
     <hyperlink r:id="rId145" ref="A50"/>
     <hyperlink r:id="rId146" ref="L50"/>
     <hyperlink r:id="rId147" ref="M50"/>
-    <hyperlink r:id="rId148" ref="A51"/>
-    <hyperlink r:id="rId149" ref="L51"/>
-    <hyperlink r:id="rId150" ref="M51"/>
-    <hyperlink r:id="rId151" ref="A54"/>
-    <hyperlink r:id="rId152" ref="L54"/>
-    <hyperlink r:id="rId153" ref="M54"/>
-    <hyperlink r:id="rId154" ref="A55"/>
-    <hyperlink r:id="rId155" ref="L55"/>
-    <hyperlink r:id="rId156" ref="M55"/>
-    <hyperlink r:id="rId157" ref="A56"/>
-    <hyperlink r:id="rId158" ref="L56"/>
-    <hyperlink r:id="rId159" ref="M56"/>
-    <hyperlink r:id="rId160" ref="A57"/>
-    <hyperlink r:id="rId161" ref="M57"/>
-    <hyperlink r:id="rId162" ref="A58"/>
-    <hyperlink r:id="rId163" ref="L58"/>
-    <hyperlink r:id="rId164" ref="M58"/>
-    <hyperlink r:id="rId165" ref="A59"/>
-    <hyperlink r:id="rId166" ref="L59"/>
-    <hyperlink r:id="rId167" ref="M59"/>
-    <hyperlink r:id="rId168" ref="A62"/>
-    <hyperlink r:id="rId169" ref="L62"/>
-    <hyperlink r:id="rId170" ref="A63"/>
-    <hyperlink r:id="rId171" ref="L63"/>
-    <hyperlink r:id="rId172" ref="M63"/>
-    <hyperlink r:id="rId173" ref="A64"/>
-    <hyperlink r:id="rId174" ref="L64"/>
-    <hyperlink r:id="rId175" ref="M64"/>
-    <hyperlink r:id="rId176" ref="A65"/>
-    <hyperlink r:id="rId177" ref="L65"/>
-    <hyperlink r:id="rId178" ref="A66"/>
-    <hyperlink r:id="rId179" ref="L66"/>
-    <hyperlink r:id="rId180" ref="M66"/>
-    <hyperlink r:id="rId181" ref="A67"/>
-    <hyperlink r:id="rId182" ref="L67"/>
-    <hyperlink r:id="rId183" ref="M67"/>
-    <hyperlink r:id="rId184" ref="A68"/>
-    <hyperlink r:id="rId185" ref="L68"/>
-    <hyperlink r:id="rId186" ref="M68"/>
-    <hyperlink r:id="rId187" ref="A69"/>
-    <hyperlink r:id="rId188" ref="L69"/>
-    <hyperlink r:id="rId189" ref="M69"/>
-    <hyperlink r:id="rId190" ref="A70"/>
-    <hyperlink r:id="rId191" location="/wheel" ref="L70"/>
-    <hyperlink r:id="rId192" ref="M70"/>
-    <hyperlink r:id="rId193" ref="A71"/>
-    <hyperlink r:id="rId194" ref="L71"/>
-    <hyperlink r:id="rId195" ref="M71"/>
-    <hyperlink r:id="rId196" ref="A72"/>
-    <hyperlink r:id="rId197" ref="L72"/>
-    <hyperlink r:id="rId198" ref="M72"/>
-    <hyperlink r:id="rId199" ref="A73"/>
-    <hyperlink r:id="rId200" location="/" ref="L73"/>
-    <hyperlink r:id="rId201" ref="M73"/>
-    <hyperlink r:id="rId202" ref="A74"/>
-    <hyperlink r:id="rId203" location="/" ref="L74"/>
-    <hyperlink r:id="rId204" ref="M74"/>
-    <hyperlink r:id="rId205" ref="A75"/>
-    <hyperlink r:id="rId206" ref="L75"/>
-    <hyperlink r:id="rId207" ref="M75"/>
-    <hyperlink r:id="rId208" ref="A76"/>
-    <hyperlink r:id="rId209" ref="L76"/>
-    <hyperlink r:id="rId210" ref="M76"/>
-    <hyperlink r:id="rId211" ref="A77"/>
-    <hyperlink r:id="rId212" ref="L77"/>
-    <hyperlink r:id="rId213" ref="M77"/>
-    <hyperlink r:id="rId214" ref="A78"/>
-    <hyperlink r:id="rId215" ref="L78"/>
-    <hyperlink r:id="rId216" ref="M78"/>
-    <hyperlink r:id="rId217" ref="A79"/>
-    <hyperlink r:id="rId218" ref="L79"/>
-    <hyperlink r:id="rId219" ref="M79"/>
-    <hyperlink r:id="rId220" ref="A80"/>
-    <hyperlink r:id="rId221" ref="L80"/>
-    <hyperlink r:id="rId222" ref="M80"/>
-    <hyperlink r:id="rId223" location="/?lpPanel=sign-up" ref="A81"/>
-    <hyperlink r:id="rId224" ref="L81"/>
-    <hyperlink r:id="rId225" ref="M81"/>
-    <hyperlink r:id="rId226" ref="A82"/>
-    <hyperlink r:id="rId227" location="/lobby" ref="L82"/>
-    <hyperlink r:id="rId228" location="/sweepsRules" ref="M82"/>
-    <hyperlink r:id="rId229" ref="A83"/>
-    <hyperlink r:id="rId230" ref="L83"/>
-    <hyperlink r:id="rId231" ref="M83"/>
-    <hyperlink r:id="rId232" ref="A84"/>
-    <hyperlink r:id="rId233" location="/" ref="L84"/>
-    <hyperlink r:id="rId234" ref="M84"/>
-    <hyperlink r:id="rId235" ref="A85"/>
-    <hyperlink r:id="rId236" ref="L85"/>
-    <hyperlink r:id="rId237" ref="M85"/>
-    <hyperlink r:id="rId238" ref="A86"/>
-    <hyperlink r:id="rId239" ref="L86"/>
-    <hyperlink r:id="rId240" ref="M86"/>
-    <hyperlink r:id="rId241" ref="A87"/>
-    <hyperlink r:id="rId242" ref="L87"/>
-    <hyperlink r:id="rId243" ref="M87"/>
-    <hyperlink r:id="rId244" ref="A88"/>
-    <hyperlink r:id="rId245" ref="L88"/>
-    <hyperlink r:id="rId246" ref="M88"/>
-    <hyperlink r:id="rId247" ref="A89"/>
-    <hyperlink r:id="rId248" ref="L89"/>
-    <hyperlink r:id="rId249" ref="M89"/>
-    <hyperlink r:id="rId250" ref="A92"/>
-    <hyperlink r:id="rId251" ref="L92"/>
-    <hyperlink r:id="rId252" ref="M92"/>
-    <hyperlink r:id="rId253" ref="A93"/>
-    <hyperlink r:id="rId254" ref="L93"/>
-    <hyperlink r:id="rId255" ref="M93"/>
-    <hyperlink r:id="rId256" ref="A94"/>
-    <hyperlink r:id="rId257" ref="L94"/>
-    <hyperlink r:id="rId258" ref="M94"/>
-    <hyperlink r:id="rId259" ref="A95"/>
-    <hyperlink r:id="rId260" ref="L95"/>
-    <hyperlink r:id="rId261" ref="M95"/>
-    <hyperlink r:id="rId262" ref="A96"/>
-    <hyperlink r:id="rId263" ref="L96"/>
-    <hyperlink r:id="rId264" ref="M96"/>
-    <hyperlink r:id="rId265" ref="L97"/>
-    <hyperlink r:id="rId266" ref="M97"/>
-    <hyperlink r:id="rId267" ref="L98"/>
-    <hyperlink r:id="rId268" ref="M98"/>
-    <hyperlink r:id="rId269" ref="L99"/>
-    <hyperlink r:id="rId270" ref="M99"/>
+    <hyperlink r:id="rId148" ref="L51"/>
+    <hyperlink r:id="rId149" ref="M51"/>
+    <hyperlink r:id="rId150" ref="A54"/>
+    <hyperlink r:id="rId151" ref="L54"/>
+    <hyperlink r:id="rId152" ref="M54"/>
+    <hyperlink r:id="rId153" ref="L55"/>
+    <hyperlink r:id="rId154" ref="M55"/>
+    <hyperlink r:id="rId155" ref="A56"/>
+    <hyperlink r:id="rId156" ref="L56"/>
+    <hyperlink r:id="rId157" ref="M56"/>
+    <hyperlink r:id="rId158" ref="A57"/>
+    <hyperlink r:id="rId159" ref="M57"/>
+    <hyperlink r:id="rId160" ref="A58"/>
+    <hyperlink r:id="rId161" ref="L58"/>
+    <hyperlink r:id="rId162" ref="M58"/>
+    <hyperlink r:id="rId163" ref="A59"/>
+    <hyperlink r:id="rId164" ref="L59"/>
+    <hyperlink r:id="rId165" ref="M59"/>
+    <hyperlink r:id="rId166" ref="A62"/>
+    <hyperlink r:id="rId167" ref="L62"/>
+    <hyperlink r:id="rId168" ref="A63"/>
+    <hyperlink r:id="rId169" ref="L63"/>
+    <hyperlink r:id="rId170" ref="M63"/>
+    <hyperlink r:id="rId171" ref="A64"/>
+    <hyperlink r:id="rId172" ref="L64"/>
+    <hyperlink r:id="rId173" ref="M64"/>
+    <hyperlink r:id="rId174" ref="A65"/>
+    <hyperlink r:id="rId175" ref="L65"/>
+    <hyperlink r:id="rId176" ref="A66"/>
+    <hyperlink r:id="rId177" ref="L66"/>
+    <hyperlink r:id="rId178" ref="M66"/>
+    <hyperlink r:id="rId179" ref="A67"/>
+    <hyperlink r:id="rId180" ref="L67"/>
+    <hyperlink r:id="rId181" ref="M67"/>
+    <hyperlink r:id="rId182" ref="A68"/>
+    <hyperlink r:id="rId183" ref="L68"/>
+    <hyperlink r:id="rId184" ref="M68"/>
+    <hyperlink r:id="rId185" ref="A69"/>
+    <hyperlink r:id="rId186" ref="L69"/>
+    <hyperlink r:id="rId187" ref="M69"/>
+    <hyperlink r:id="rId188" ref="A70"/>
+    <hyperlink r:id="rId189" location="/wheel" ref="L70"/>
+    <hyperlink r:id="rId190" ref="M70"/>
+    <hyperlink r:id="rId191" ref="A71"/>
+    <hyperlink r:id="rId192" ref="L71"/>
+    <hyperlink r:id="rId193" ref="M71"/>
+    <hyperlink r:id="rId194" ref="A72"/>
+    <hyperlink r:id="rId195" ref="L72"/>
+    <hyperlink r:id="rId196" ref="M72"/>
+    <hyperlink r:id="rId197" ref="A73"/>
+    <hyperlink r:id="rId198" location="/" ref="L73"/>
+    <hyperlink r:id="rId199" ref="M73"/>
+    <hyperlink r:id="rId200" ref="A74"/>
+    <hyperlink r:id="rId201" location="/" ref="L74"/>
+    <hyperlink r:id="rId202" ref="M74"/>
+    <hyperlink r:id="rId203" ref="A75"/>
+    <hyperlink r:id="rId204" ref="L75"/>
+    <hyperlink r:id="rId205" ref="M75"/>
+    <hyperlink r:id="rId206" ref="A76"/>
+    <hyperlink r:id="rId207" ref="L76"/>
+    <hyperlink r:id="rId208" ref="M76"/>
+    <hyperlink r:id="rId209" ref="A77"/>
+    <hyperlink r:id="rId210" ref="L77"/>
+    <hyperlink r:id="rId211" ref="M77"/>
+    <hyperlink r:id="rId212" ref="A78"/>
+    <hyperlink r:id="rId213" ref="L78"/>
+    <hyperlink r:id="rId214" ref="M78"/>
+    <hyperlink r:id="rId215" ref="A79"/>
+    <hyperlink r:id="rId216" ref="L79"/>
+    <hyperlink r:id="rId217" ref="M79"/>
+    <hyperlink r:id="rId218" ref="A80"/>
+    <hyperlink r:id="rId219" ref="L80"/>
+    <hyperlink r:id="rId220" ref="M80"/>
+    <hyperlink r:id="rId221" location="/?lpPanel=sign-up" ref="A81"/>
+    <hyperlink r:id="rId222" ref="L81"/>
+    <hyperlink r:id="rId223" ref="M81"/>
+    <hyperlink r:id="rId224" ref="A82"/>
+    <hyperlink r:id="rId225" location="/lobby" ref="L82"/>
+    <hyperlink r:id="rId226" location="/sweepsRules" ref="M82"/>
+    <hyperlink r:id="rId227" ref="A83"/>
+    <hyperlink r:id="rId228" ref="L83"/>
+    <hyperlink r:id="rId229" ref="M83"/>
+    <hyperlink r:id="rId230" ref="A84"/>
+    <hyperlink r:id="rId231" location="/" ref="L84"/>
+    <hyperlink r:id="rId232" ref="M84"/>
+    <hyperlink r:id="rId233" ref="A85"/>
+    <hyperlink r:id="rId234" ref="L85"/>
+    <hyperlink r:id="rId235" ref="M85"/>
+    <hyperlink r:id="rId236" ref="A86"/>
+    <hyperlink r:id="rId237" ref="L86"/>
+    <hyperlink r:id="rId238" ref="M86"/>
+    <hyperlink r:id="rId239" ref="A87"/>
+    <hyperlink r:id="rId240" ref="L87"/>
+    <hyperlink r:id="rId241" ref="M87"/>
+    <hyperlink r:id="rId242" ref="A88"/>
+    <hyperlink r:id="rId243" ref="L88"/>
+    <hyperlink r:id="rId244" ref="M88"/>
+    <hyperlink r:id="rId245" ref="A89"/>
+    <hyperlink r:id="rId246" ref="L89"/>
+    <hyperlink r:id="rId247" ref="M89"/>
+    <hyperlink r:id="rId248" ref="L92"/>
+    <hyperlink r:id="rId249" ref="M92"/>
+    <hyperlink r:id="rId250" ref="L93"/>
+    <hyperlink r:id="rId251" ref="M93"/>
+    <hyperlink r:id="rId252" ref="L94"/>
+    <hyperlink r:id="rId253" ref="M94"/>
+    <hyperlink r:id="rId254" ref="L95"/>
+    <hyperlink r:id="rId255" ref="M95"/>
+    <hyperlink r:id="rId256" ref="L96"/>
+    <hyperlink r:id="rId257" ref="M96"/>
+    <hyperlink r:id="rId258" ref="L97"/>
+    <hyperlink r:id="rId259" ref="M97"/>
+    <hyperlink r:id="rId260" ref="L98"/>
+    <hyperlink r:id="rId261" ref="M98"/>
+    <hyperlink r:id="rId262" ref="L99"/>
+    <hyperlink r:id="rId263" ref="M99"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId271"/>
+  <drawing r:id="rId264"/>
   <tableParts count="1">
-    <tablePart r:id="rId273"/>
+    <tablePart r:id="rId266"/>
   </tableParts>
 </worksheet>
 </file>